--- a/artifacts/recipes/new_data/allrecipescom/italian/italian_soups-and-stews.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/italian/italian_soups-and-stews.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699640147-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Italian Soups and Stews</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699640157-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YymtNfAf9nPc6TZ2jVnuaLMdP3A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/449163-a876afc8448041bca9b91c1c61f34013.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14118/minestrone-soup/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Minestrone Soup</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n9"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups vegetable stock\n\n\n2 (14.5 ounce) cans stewed tomatoes\n\n\n1 large potato, cubed\n\n\n1  onion, chopped\n\n\n2 stalks celery, chopped\n\n\n2  carrots, chopped\n\n\n1 large head cabbage, finely chopped\n\n\n2 tablespoons Italian seasoning\n\n\n1 (15 ounce) can kidney beans\n\n\n3 cups fresh corn kernels\n\n\n1 large zucchini, sliced\n\n\n1 cup uncooked orzo pasta\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups vegetable stock\n\n\n2 (14.5 ounce) cans stewed tomatoes\n\n\n1 large potato, cubed\n\n\n1  onion, chopped\n\n\n2 stalks celery, chopped\n\n\n2  carrots, chopped\n\n\n1 large head cabbage, finely chopped\n\n\n2 tablespoons Italian seasoning\n\n\n1 (15 ounce) can kidney beans\n\n\n3 cups fresh corn kernels\n\n\n1 large zucchini, sliced\n\n\n1 cup uncooked orzo pasta\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large soup pot, combine vegetable stock, undrained tomatoes, potato, onion, celery, carrot, cabbage, and Italian seasoning. Bring to a boil and reduce heat. Simmer for about 15 minutes."},{"recipe_directions":"Stir in beans, corn, zucchini, and pasta; simmer for 10 to 15 more minutes until the vegetables are tender. Season with salt and pepper."},{"recipe_directions":"If possible, use fresh vegetables and herbs from the garden."},{"recipe_directions":"If you like, you can replace the kidney beans with cannellini beans."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Minestrone"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"399\nCalories\n\n\n2g \nFat\n\n\n81g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699640165-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sVqeDo1HkFJx31skJN26KUkAGNs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1061363-21b510ed08824f4dbad5d465cc112385.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/101494/ribollita-reboiled-italian-cabbage-soup/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Ribollita (Reboiled Italian Cabbage Soup)</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n 3 hrs 15 mins\n\n\nAdditional Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 5 hrs 30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups dry cannellini beans\n\n\n4 cups water\n\n\n3 (32 ounce) cartons chicken broth\n\n\n5 cloves garlic, minced\n\n\n4  sage leaves\n\n\n2  bay leaves\n\n\n1 teaspoon salt\n\n\n½ cup olive oil\n\n\n2  onions, diced\n\n\n3  carrots, peeled and sliced\n\n\n3 large stalks  celery, chopped\n\n\n2  potatoes, peeled and cut into chunks\n\n\n1 ½ cups cabbage, coarsely chopped\n\n\n1 bunch Swiss chard, trimmed and chopped\n\n\n1 bunch kale, trimmed and chopped\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n12  (1/2-inch-thick) slices French bread, lightly toasted\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 ½ cups grated Parmesan cheese for topping\n\n\n½ cup olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups dry cannellini beans\n\n\n4 cups water\n\n\n3 (32 ounce) cartons chicken broth\n\n\n5 cloves garlic, minced\n\n\n4  sage leaves\n\n\n2  bay leaves\n\n\n1 teaspoon salt\n\n\n½ cup olive oil\n\n\n2  onions, diced\n\n\n3  carrots, peeled and sliced\n\n\n3 large stalks  celery, chopped\n\n\n2  potatoes, peeled and cut into chunks\n\n\n1 ½ cups cabbage, coarsely chopped\n\n\n1 bunch Swiss chard, trimmed and chopped\n\n\n1 bunch kale, trimmed and chopped\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n12  (1/2-inch-thick) slices French bread, lightly toasted\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 ½ cups grated Parmesan cheese for topping\n\n\n½ cup olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sort and rinse the beans before placing them in a large pot with the water. Bring to a boil over medium-high heat and cook 5 minutes. Turn off heat, cover, and let stand 1 1/2 hours. Drain."},{"recipe_directions":"Place the beans, chicken broth, garlic, sage leaves, bay leaves, and salt in a large pot. Bring to a boil over medium-high heat. Reduce heat to low and simmer until beans are tender, about 2 hours. Cool. Remove 1 cup of beans. Discard the bay leaves and sage leaves. Blend the remaining bean mixture with a hand mixer until smooth. Set aside."},{"recipe_directions":"Heat the olive oil in a large pot over medium-high heat. Add the onions; cook and stir until transparent, about 10 minutes. Combine the carrots, celery, potatoes, cabbage, Swiss chard, and kale with the onions. Stir in the tomatoes. Season with salt and pepper to taste. Cover, and cook until greens have wilted, stirring at least once, about 20 minutes. Stir in the pureed bean mixture, and cook 40 minute until the mixture thickens. Stir in the reserved beans. Adjust seasonings to taste. Add the toasted bread slices; cook until bread is soaked, about 10 minutes longer. Cool, and refrigerate overnight."},{"recipe_directions":"Reheat the soup over low heat until heated through, about 20 minutes. Serve each serving garnished with 2 tablespoons Parmesan cheese and a drizzle of olive oil."},{"recipe_directions":"In step 2, the bean mixture can also be pureed in batches by using a regular blender or a food processor."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Carrot Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"418\nCalories\n\n\n22g \nFat\n\n\n42g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699640171-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DqbV4oFtJNdWcGaB1sp2CGBZl3I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2371723-db3d4e5f5e7c4ba69c64accef0ffa940.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236616/tuscan-bean-chicken-and-italian-sausage-soup/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Tuscan Bean and Chicken Italian Sausage Soup</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ pound Italian chicken sausage links, casings removed and sausages cut into 1/4-inch pieces\n\n\n1  onion, chopped\n\n\n1  yellow squash, sliced\n\n\n2 cloves garlic, pressed\n\n\n1 (32 ounce) carton chicken broth\n\n\n2 (15 ounce) cans white beans, drained and rinsed\n\n\n1 (15 ounce) can Italian-style diced tomatoes\n\n\n2 cups baby spinach leaves\n\n\n⅓ cup red wine\n\n\n1 teaspoon Italian seasoning\n\n\n3 tablespoons grated Pecorino Romano cheese"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ pound Italian chicken sausage links, casings removed and sausages cut into 1/4-inch pieces\n\n\n1  onion, chopped\n\n\n1  yellow squash, sliced\n\n\n2 cloves garlic, pressed\n\n\n1 (32 ounce) carton chicken broth\n\n\n2 (15 ounce) cans white beans, drained and rinsed\n\n\n1 (15 ounce) can Italian-style diced tomatoes\n\n\n2 cups baby spinach leaves\n\n\n⅓ cup red wine\n\n\n1 teaspoon Italian seasoning\n\n\n3 tablespoons grated Pecorino Romano cheese'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook sausage in a large pot over medium-high heat until cooked through and completely browned, 5 to 7 minutes. Drain and discard grease."},{"recipe_directions":"Add onion to sausage in the pot; cook and stir over medium heat until onion is translucent, about 5 minutes. Add squash and garlic; cook and stir until garlic is fragrant, about 1 minute more."},{"recipe_directions":"Pour broth, beans, and tomatoes into the pot; stir. Add spinach, red wine, and Italian seasoning; bring soup to a simmer and cook until hot, about 15 minutes."},{"recipe_directions":"Ladle soup into bowls and garnish with Pecorino Romano cheese to serve."},{"recipe_directions":"This recipe appeared in Allrecipes Magazine and was modified to use 4 cups of baby spinach."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"359\nCalories\n\n\n12g \nFat\n\n\n41g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699640177-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bmY4wEle5Krj_jYv3Afn23BLL8o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(885x0:887x2):format(webp)/5137405-8dc1953eeb3342bc9af375e03a092159.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262925/hearty-minestrone-soup-instant-pot/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Instant Pot Hearty Minestrone Soup</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons extra-virgin olive oil\n\n\n1 pound beef stew meat\n\n\n1 large onion, diced\n\n\n2 stalks celery, diced\n\n\n⅓ pound green beans, trimmed and cut into 1/2-inch pieces\n\n\n1 large carrot, diced\n\n\n4 cloves garlic, minced\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon dried basil\n\n\n1 pinch ground black pepper, to taste\n\n\n6 cups chicken bone broth\n\n\n1 (28 ounce) can no-salt-added diced tomatoes\n\n\n1 (14 ounce) can crushed tomatoes\n\n\n1 (15 ounce) can red kidney beans, drained and rinsed\n\n\n1 cup gluten-free ditalini pasta\n\n\n1 pinch kosher salt, to taste\n\n\n⅓ cup finely grated Parmesan cheese\n\n\n2 tablespoons chopped fresh basil"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons extra-virgin olive oil\n\n\n1 pound beef stew meat\n\n\n1 large onion, diced\n\n\n2 stalks celery, diced\n\n\n⅓ pound green beans, trimmed and cut into 1/2-inch pieces\n\n\n1 large carrot, diced\n\n\n4 cloves garlic, minced\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon dried basil\n\n\n1 pinch ground black pepper, to taste\n\n\n6 cups chicken bone broth\n\n\n1 (28 ounce) can no-salt-added diced tomatoes\n\n\n1 (14 ounce) can crushed tomatoes\n\n\n1 (15 ounce) can red kidney beans, drained and rinsed\n\n\n1 cup gluten-free ditalini pasta\n\n\n1 pinch kosher salt, to taste\n\n\n⅓ cup finely grated Parmesan cheese\n\n\n2 tablespoons chopped fresh basil'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a multi-functional pressure cooker (such as Instant Pot) on Sauté mode. Add beef and onion; cook until beef is no longer pink on the outside, about 4 minutes. Add celery, green beans, carrot, garlic, oregano, dried basil, and pepper. Stir to combine."},{"recipe_directions":"Pour broth, diced tomatoes, and crushed tomatoes into the pot with beef. Stir well. Select Soup setting; close and lock the lid. Select high pressure according to manufacturer's instructions; set timer for 35 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid. Stir in kidney beans and pasta. Turn on Slow Cook mode and cook until pasta and vegetables are tender, about 10 minutes. Season with salt. Ladle soup into bowls and top with Parmesan cheese and fresh basil."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Minestrone"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"369\nCalories\n\n\n17g \nFat\n\n\n32g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699640187-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LtNrGogUq6lBek-hURMjS20s3OA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7091-27a0e6b1f1da4b5695f2726fc2323106.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16745/party-italian-wedding-soup/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Party Italian Wedding Soup</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (48 fluid ounce) can chicken broth\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n2  onions, chopped\n\n\n2 cups chopped carrot\n\n\n2 stalks celery, chopped\n\n\n1 pound ground beef\n\n\n1 cup dry bread crumbs\n\n\n1  egg\n\n\n1 pound skinless, boneless chicken breast halves, cut into chunks\n\n\n3 ounces dry pasta\n\n\nsalt and pepper, to taste"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (48 fluid ounce) can chicken broth\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n2  onions, chopped\n\n\n2 cups chopped carrot\n\n\n2 stalks celery, chopped\n\n\n1 pound ground beef\n\n\n1 cup dry bread crumbs\n\n\n1  egg\n\n\n1 pound skinless, boneless chicken breast halves, cut into chunks\n\n\n3 ounces dry pasta\n\n\nsalt and pepper, to taste'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large pot over medium heat, combine chicken broth, spinach, onions, carrots, and celery. Mix well and allow to simmer."},{"recipe_directions":"In a separate large bowl, combine ground beef, bread crumbs, and egg and mix well. Form mixture into 1/2-inch diameter meatballs and carefully drop them into the soup."},{"recipe_directions":"Put chunks of chicken breast into soup and reduce heat to low. Allow soup to simmer for 1 hour. Add pasta 30 minutes before serving and season with salt and pepper to taste."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n12g \nFat\n\n\n17g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699640195-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uZ_3WbIY8R1kZVsBUPxNRZY3LNA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1116770-5a47dc39af3c4f629f75894536659162.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/26444/moms-italian-beef-barley-soup/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Mom's Italian Beef Barley Soup</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 5 hrs\n\n\nTotal Time:\n 5 hrs 10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds cubed beef chuck roast\n\n\n5 cups water\n\n\n4 cubes beef bouillon, crumbled\n\n\n½  onion, chopped\n\n\n1 (8 ounce) can tomato sauce\n\n\n¾ cup uncooked pearl barley\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds cubed beef chuck roast\n\n\n5 cups water\n\n\n4 cubes beef bouillon, crumbled\n\n\n½  onion, chopped\n\n\n1 (8 ounce) can tomato sauce\n\n\n¾ cup uncooked pearl barley\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a slow cooker, combine beef, water, bouillon, onion, tomato sauce, barley, salt and pepper."},{"recipe_directions":"Cover, and cook on Low for 5 hours."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Barley Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"512\nCalories\n\n\n28g \nFat\n\n\n35g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699640202-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wExAG2rHxKbjg3nleSKwI5TYPRw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/21173-b425d36b329b4bdeab8eb70851dfc6e0.jpg"
@@ -593,59 +910,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/50901/best-darn-minestrone-soup-around/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Best Darn Minestrone Soup Around</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 2 hrs 10 mins\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 tablespoons butter\n\n\n1 ½ cups chopped onions\n\n\n4 (14 ounce) cans chicken broth\n\n\n4 (15 ounce) cans mixed vegetables, with liquid\n\n\n2 (16 ounce) cans kidney beans, with liquid\n\n\n2 (14.5 ounce) cans whole peeled tomatoes, with liquid\n\n\n1 (16 ounce) package frozen chopped spinach\n\n\n2 tablespoons tomato paste\n\n\n4 ¼ teaspoons garlic powder\n\n\n4 teaspoons dried parsley\n\n\n½ teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon dried basil\n\n\n1 cup uncooked elbow macaroni\n\n\n½ cup grated Parmesan cheese\n\n\n1 cup canned garbanzo beans, drained\n\n\n4 cups heavy cream\n\n\n½ cup grated Parmesan cheese for topping"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 tablespoons butter\n\n\n1 ½ cups chopped onions\n\n\n4 (14 ounce) cans chicken broth\n\n\n4 (15 ounce) cans mixed vegetables, with liquid\n\n\n2 (16 ounce) cans kidney beans, with liquid\n\n\n2 (14.5 ounce) cans whole peeled tomatoes, with liquid\n\n\n1 (16 ounce) package frozen chopped spinach\n\n\n2 tablespoons tomato paste\n\n\n4 ¼ teaspoons garlic powder\n\n\n4 teaspoons dried parsley\n\n\n½ teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon dried basil\n\n\n1 cup uncooked elbow macaroni\n\n\n½ cup grated Parmesan cheese\n\n\n1 cup canned garbanzo beans, drained\n\n\n4 cups heavy cream\n\n\n½ cup grated Parmesan cheese for topping'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large stock pot over medium heat, stir and cook onions in butter until soft. Add broth, mixed vegetables, kidney beans, tomatoes, spinach, and tomato paste; simmer gently for 1 1/2 hours."},{"recipe_directions":"Using a slotted spoon, remove about half of the vegetables to a blender or food processor, reserving liquid in stock pot. Puree the vegetables until smooth and return them to stock pot."},{"recipe_directions":"Stir in garlic powder, parsley, salt, pepper, basil, macaroni, 1/2 cup of Parmesan cheese, garbanzo beans, and heavy cream; cook for 1/2 hour, stirring frequently. Pour into bowls and sprinkle with additional Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Minestrone"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"587\nCalories\n\n\n41g \nFat\n\n\n43g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699640208-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0c3lFTaJuBcJPd-ybSexUTSV7tI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7558057-584aa856373b47a992e9dfef7fa8ce80.jpg"
@@ -658,59 +971,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277949/new-years-good-luck-pasta-fazool/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>New Year's "Good Luck" Pasta Fazool</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12 ounces bacon, sliced into 1-inch pieces\n\n\n½ cup diced onion\n\n\n½ cup diced celery\n\n\n1 teaspoon salt, plus more to taste \n\n\n½ teaspoon freshly ground black pepper\n\n\n1 pinch cayenne pepper, or to taste\n\n\n¼ teaspoon dried thyme\n\n\n¼ teaspoon dried oregano\n\n\n2 tablespoons tomato paste\n\n\n4 cloves garlic, finely minced\n\n\n4 cups chicken broth\n\n\n1 cup water\n\n\n1 large bunch Swiss chard\n\n\n1 (15.5 ounce) can cannellini beans, drained\n\n\n1 ¼ cups orecchiette pasta\n\n\n1 tablespoon freshly grated Parmigiano-Reggiano, or to taste (Optional)\n\n\n1 drizzle olive oil (Optional)\n\n\n1 pinch red pepper flakes, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12 ounces bacon, sliced into 1-inch pieces\n\n\n½ cup diced onion\n\n\n½ cup diced celery\n\n\n1 teaspoon salt, plus more to taste \n\n\n½ teaspoon freshly ground black pepper\n\n\n1 pinch cayenne pepper, or to taste\n\n\n¼ teaspoon dried thyme\n\n\n¼ teaspoon dried oregano\n\n\n2 tablespoons tomato paste\n\n\n4 cloves garlic, finely minced\n\n\n4 cups chicken broth\n\n\n1 cup water\n\n\n1 large bunch Swiss chard\n\n\n1 (15.5 ounce) can cannellini beans, drained\n\n\n1 ¼ cups orecchiette pasta\n\n\n1 tablespoon freshly grated Parmigiano-Reggiano, or to taste (Optional)\n\n\n1 drizzle olive oil (Optional)\n\n\n1 pinch red pepper flakes, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a cold soup pot over medium heat. Add sliced bacon. Cook, stirring occasionally, until most of the fat has rendered out and the bacon begins to crisp up, about 5 minutes. Drain off most of the excess fat with a paper towel if desired, leaving about 1 tablespoon in the pot. Add onions, celery, and salt. Saute until and softened onions turn translucent, 5 to 7 minutes."},{"recipe_directions":"Stir in black pepper, cayenne, dried thyme, dried oregano, and tomato paste. Cook, stirring occasionally, until the tomato paste starts to caramelize onto the bottom of the pan, about 2 minutes. Add the minced garlic, and cook, stirring, for 1 to 2 more minutes. Stir in chicken broth and water and raise the heat to high. Bring to a simmer over high heat; reduce heat to medium and let simmer while you prep the Swiss chard."},{"recipe_directions":"Remove chard leaves from tough stems. Gather a handful of leaves and slice across in one direction; turn and slice across again. Repeat with remaining chard. Place into a bowl and fill with water. Swish around to remove dirt; transfer washed greens a handful at a time to another bowl to drain."},{"recipe_directions":"Stir the Swiss chard into the pot and simmer over medium heat until greens become tender, about 10 minutes. Season with salt."},{"recipe_directions":"Stir in the drained beans and raise the heat to high; bring to a boil. Stir in pasta and reduce heat to medium-high. Cook until the pasta is tender, stirring occasionally, 12 to 15 minutes."},{"recipe_directions":"Once the pasta is tender, check the seasoning. Serve immediately in large bowls. Garnish with Parmigiano-Reggiano cheese, a drizzle of olive oil, and red pepper flakes."},{"recipe_directions":"Any kind of pork will bring you good luck. You can use pancetta, fresh pork, or pork sausage, if you like."},{"recipe_directions":"A large head of Swiss chard, chopped, should yield about 4 cups. If prepping the chard ahead, let mixture simmer for about 10 minutes before adding the chopped greens."},{"recipe_directions":"You can use any other shaped pasta that you like."},{"recipe_directions":"If it gets too thick, you can add more broth."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"293\nCalories\n\n\n10g \nFat\n\n\n35g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699640214-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eh-0k0I2_dqC3fthid3LLI74bdA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5939564-23db101b72344487b3e62fe0ee57a80a.jpg"
@@ -723,59 +1032,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234932/chef-johns-pork-al-latte/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Chef John's Pork al Latte</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 35 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n2 slices bacon, coarsely chopped\n\n\n1 ½ pounds pork shoulder, cut into 2-inch chunks\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 small yellow onion, diced\n\n\n4 cloves garlic, sliced\n\n\n1 ¼ cups chicken broth\n\n\n½ cup creme fraiche\n\n\n2 tablespoons chopped fresh sage leaves\n\n\n1 pinch red pepper flakes, or to taste\n\n\n¼ cup olive oil\n\n\n15  whole fresh sage leaves"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n2 slices bacon, coarsely chopped\n\n\n1 ½ pounds pork shoulder, cut into 2-inch chunks\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 small yellow onion, diced\n\n\n4 cloves garlic, sliced\n\n\n1 ¼ cups chicken broth\n\n\n½ cup creme fraiche\n\n\n2 tablespoons chopped fresh sage leaves\n\n\n1 pinch red pepper flakes, or to taste\n\n\n¼ cup olive oil\n\n\n15  whole fresh sage leaves'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour 1 tablespoon olive oil into a skillet, place over medium heat, and cook bacon, stirring often, until crisp and bacon fat has rendered into the skillet, about 5 minutes."},{"recipe_directions":"Season pork cubes generously with salt and black pepper. Remove bacon from pan and set aside, reserving fat in pan. Turn heat to medium-high and brown pork pieces in bacon drippings until well browned on both sides, about 5 minutes per side. Transfer meat to a bowl, leaving pan drippings in skillet."},{"recipe_directions":"Turn heat to medium and stir in chopped onion and a pinch of salt. Cook and stir onion until translucent and slightly browned, about 5 minutes. Stir garlic into onion and cook until fragrant, about 1 minute."},{"recipe_directions":"Pour chicken broth and crème fraîche into onion mixture; whisk until smooth. Scrape up and dissolve any browned bits of food on the bottom of the skillet. Bring mixture to a simmer."},{"recipe_directions":"Return bacon to sauce and stir in 2 tablespoons chopped sage. Place pork pieces into simmering sauce along with any accumulated juices from the meat. Reduce heat to low, cover, and simmer until meat is almost tender, about 1 hour."},{"recipe_directions":"Raise heat to medium and cook uncovered until pan sauce reduces and thickens and meat is very tender, about 20 more minutes. Stir red pepper flakes into sauce; adjust seasonings to taste."},{"recipe_directions":"Heat 1/4 cup olive oil in a small skillet over medium heat; drop whole sage leaves into hot oil and cook, lightly tossing leaves in oil, until crisp, 10 to 15 seconds. Drain sage leaves on paper towels and crumble over pork."},{"recipe_directions":"Serve this with Chef John's Perfect Polenta. It's great as a base for all kinds of saucy meats and stews."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Pork"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"514\nCalories\n\n\n46g \nFat\n\n\n5g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699640222-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zyrUMGMkNc1mdI_MDDyEHrQ_RCk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1249x0:1251x2):format(webp)/6322489-8cb6c385a38a465ca29549c3a9ccc1b4.jpg"
@@ -788,59 +1093,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270369/tuscan-onion-soup-carabaccia/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Carabaccia (Tuscan Onion Soup)</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 45 mins\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 pounds red onions\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon kosher salt\n\n\n3 leaves sage\n\n\n  freshly ground black pepper to taste\n\n\n1 pinch ground cinnamon\n\n\n¼ cup finely ground almonds (Optional)\n\n\n3 tablespoons red wine vinegar, or to taste\n\n\n5 cups beef broth, or more as needed"},{"recipe_ingredients":"3 thick slices Italian bread, halved\n\n\n2 tablespoons olive oil, or to taste, divided\n\n\n3 leaves sage, or to taste, sliced into thin strips\n\n\n3 tablespoons grated Parmesan cheese, or to taste, divided"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 pounds red onions\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon kosher salt\n\n\n3 leaves sage\n\n\n  freshly ground black pepper to taste\n\n\n1 pinch ground cinnamon\n\n\n¼ cup finely ground almonds (Optional)\n\n\n3 tablespoons red wine vinegar, or to taste\n\n\n5 cups beef broth, or more as needed'}, {'recipe_ingredients': '3 thick slices Italian bread, halved\n\n\n2 tablespoons olive oil, or to taste, divided\n\n\n3 leaves sage, or to taste, sliced into thin strips\n\n\n3 tablespoons grated Parmesan cheese, or to taste, divided'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the soup: Peel onions and cut in half. Cut along the grain lengthwise into thin slices."},{"recipe_directions":"Heat oil in a very large skillet over medium-high heat. Add onions and kosher salt. Cook and stir until starting to turn translucent, 5 to 7 minutes. Reduce the heat to medium and continue to cook, stirring occasionally, until very soft and sweet, about 1 hour."},{"recipe_directions":"Add sage leaves, pepper, cinnamon, and almonds to the onions. Cook and stir until fragrant, 3 to 5 minutes. Transfer mixture to a soup pot. Pour in vinegar and broth and bring to a simmer over high heat. Reduce the heat to medium-low and simmer until flavors blend, about 30 minutes."},{"recipe_directions":"When the soup is almost finished, make the toast: Preheat the oven to 400 degrees F (200 degrees C). Line a small baking sheet with aluminum foil."},{"recipe_directions":"Place Italian bread onto the prepared baking sheet. Drizzle some olive oil over the bread; sprinkle sliced sage and some Parmesan cheese on top."},{"recipe_directions":"Toast in the preheated oven until browned, about 15 minutes."},{"recipe_directions":"Ladle soup into serving bowls and top each with a piece of toast. Drizzle remaining olive oil over the toast and sprinkle remaining Parmesan cheese on top. Dunk toast into the soup and let soak for a few minutes before serving."},{"recipe_directions":"If you want to cut down on stirring, you can bake the onions in a roasting pan at 325 degrees F (165 degrees C), stirring a few times along the way. Take your time and wait until they are very soft."},{"recipe_directions":"You can also use chicken or vegetable broth, and you can substitute Pecorino cheese for Parmesan if desired."},{"recipe_directions":"While it is traditional to use cinnamon, many people don't enjoy the effect it has on the sweetness of the soup, so you may want to omit it or add an extremely small amount, and then adjust from there. If you don't add any to the pot, you can still experiment by adding a trace amount to a small sample cup, and see what you think."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Onion Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"308\nCalories\n\n\n15g \nFat\n\n\n38g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699640230-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Rh7hr9EpumkK7ksUclUXcPfKzd0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2425133-mediterranean-fish-soup-Liberty7878-4x3-1-80a8dde1d28c4631925aae3bbdf70f35.jpg"
@@ -854,59 +1155,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13268/mediterranean-fish-soup/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Mediterranean Fish Soup</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 4 hrs 15 mins\n\n\nTotal Time:\n 4 hrs 30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (14 ounce) cans chicken broth\n\n\n1 (14.5 ounce) can diced tomatoes, drained\n\n\n1  onion, chopped\n\n\n½  green bell pepper, chopped\n\n\n1 (8 ounce) can tomato sauce\n\n\n½ cup orange juice\n\n\n½ cup dry white wine\n\n\n2 ½ ounces canned mushrooms\n\n\n¼ cup sliced black olives\n\n\n2  bay leaves\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon dried basil\n\n\n¼ teaspoon fennel seed, crushed\n\n\n⅛ teaspoon ground black pepper\n\n\n1 pound medium shrimp - peeled and deveined\n\n\n1 pound cod fillets, cubed"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (14 ounce) cans chicken broth\n\n\n1 (14.5 ounce) can diced tomatoes, drained\n\n\n1  onion, chopped\n\n\n½  green bell pepper, chopped\n\n\n1 (8 ounce) can tomato sauce\n\n\n½ cup orange juice\n\n\n½ cup dry white wine\n\n\n2 ½ ounces canned mushrooms\n\n\n¼ cup sliced black olives\n\n\n2  bay leaves\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon dried basil\n\n\n¼ teaspoon fennel seed, crushed\n\n\n⅛ teaspoon ground black pepper\n\n\n1 pound medium shrimp - peeled and deveined\n\n\n1 pound cod fillets, cubed'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place broth, tomatoes, onion, bell pepper, tomato sauce, orange juice, wine, mushrooms, olives, bay leaves, garlic, basil, fennel seed, and black pepper into a slow cooker. Cook on Low until vegetables are crisp-tender, 4 to 4 1/2 hours."},{"recipe_directions":"Stir in shrimp and cod. Continue cooking until shrimp are opaque, 15 to 30 minutes. Discard bay leaves before serving."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"222\nCalories\n\n\n3g \nFat\n\n\n12g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699640237-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ETvJ4jf-VKSD63n-xs5fD9oVIfI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/77955-italian-style-chiliSoupLovingNicole2x1-56a086099a7741f9ad417a5d2d73d2d4.jpg"
@@ -920,59 +1217,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/77955/italian-style-chili/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Italian-Style Chili</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n¾ cup chopped onion\n\n\n1 (26 ounce) jar three cheese spaghetti sauce \n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (14.5 ounce) can kidney beans, drained and rinsed\n\n\n1 ½ cups water\n\n\n1 (4 ounce) can sliced mushrooms\n\n\n2 ounces sliced pepperoni\n\n\n1 tablespoon beef bouillon\n\n\n1 tablespoon chili powder\n\n\n2 teaspoons sugar\n\n\n1 cup shredded Cheddar cheese, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n¾ cup chopped onion\n\n\n1 (26 ounce) jar three cheese spaghetti sauce \n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (14.5 ounce) can kidney beans, drained and rinsed\n\n\n1 ½ cups water\n\n\n1 (4 ounce) can sliced mushrooms\n\n\n2 ounces sliced pepperoni\n\n\n1 tablespoon beef bouillon\n\n\n1 tablespoon chili powder\n\n\n2 teaspoons sugar\n\n\n1 cup shredded Cheddar cheese, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Crumble ground beef into a large stockpot over medium-high heat. Add onion; cook and stir until beef is evenly browned, 5 to 7 minutes. Drain and discard grease."},{"recipe_directions":"Pour in spaghetti sauce, tomatoes, beans, water, mushrooms, pepperoni, bouillon, chili powder, and sugar. Bring to a boil, then reduce heat. Simmer, stirring occasionally, until flavors blend, about 30 minutes."},{"recipe_directions":"Garnish bowls of chili with Cheddar cheese to serve."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Chili Recipes"},{"recipe_tags":"Beef Chili Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"489\nCalories\n\n\n26g \nFat\n\n\n35g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699640248-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SO0aKXA9npgLnPCC7BkGT6yzFRA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2335098-almost-tuscan-sausage-and-kale-soup-hh8-4x3-1-e85c083b408a48d2a1a38456a748964b.jpg"
@@ -986,59 +1279,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234942/almost-tuscan-sausage-and-kale-soup/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Almost Tuscan Sausage and Kale Soup</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil, or as needed\n\n\n1 large onion, chopped\n\n\n2 cloves garlic, crushed\n\n\n1 pinch red pepper flakes, or to taste\n\n\n1 pinch ground black pepper, or to taste\n\n\n1 pound bulk hot Italian sausage, removed from casings and crumbled\n\n\n½ teaspoon chopped fresh basil\n\n\n¼ teaspoon smoked paprika (Optional)\n\n\n6 cups low-sodium chicken broth\n\n\n4 cups chopped kale\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n1 cup peeled and chopped yellow potatoes, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil, or as needed\n\n\n1 large onion, chopped\n\n\n2 cloves garlic, crushed\n\n\n1 pinch red pepper flakes, or to taste\n\n\n1 pinch ground black pepper, or to taste\n\n\n1 pound bulk hot Italian sausage, removed from casings and crumbled\n\n\n½ teaspoon chopped fresh basil\n\n\n¼ teaspoon smoked paprika (Optional)\n\n\n6 cups low-sodium chicken broth\n\n\n4 cups chopped kale\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n1 cup peeled and chopped yellow potatoes, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large stockpot over medium heat until the oil shimmers; cook and stir onion, garlic, red pepper flakes, and black pepper until onion is translucent, 10 to 15 minutes."},{"recipe_directions":"Mix sausage, basil, and paprika together in a bowl."},{"recipe_directions":"Stir sausage mixture into onion mixture; cook and stir until sausage is browned and fully cooked, 5 to 10 minutes."},{"recipe_directions":"Add chicken broth, kale, cannellini beans, and potatoes to sausage-onion mixture; lower heat to medium-low. Cover stockpot and simmer until potatoes are tender, 15 to 20 minutes."},{"recipe_directions":"To speed up cooking time, I usually steam the potatoes while I'm heating the oil and cooking the sausage. That way, I only have to heat the soup for 10 more minutes once I mix in the potatoes with everything else. But if you have the patience it's worth it to cook the potatoes the slow way. Also, I love spices so I usually toss in a bit of cumin to cook with the onion and garlic."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Pork Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"329\nCalories\n\n\n18g \nFat\n\n\n25g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699640257-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aKVp1kcDjHWBGK2B_CGM4b6Oib4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/351105-7005b5b4db644fc78382adcbe207e992.jpg"
@@ -1051,59 +1340,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13334/pasta-fagioli-soup-ii/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Pasta Fagioli Soup with Bacon</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (29 ounce) can diced tomatoes\n\n\n2 (14.5 ounce) cans chicken broth\n\n\n2 (14 ounce) cans Great Northern beans, undrained\n\n\n3 cups water\n\n\n1 (14 ounce) can chopped spinach, drained\n\n\n1 (8 ounce) can tomato sauce\n\n\n8 slices crisp cooked bacon, crumbled\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon dried parsley\n\n\n1 ½ teaspoons salt\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon dried basil\n\n\n½ pound seashell pasta\n\n\n1/2 cup grated Romano cheese, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (29 ounce) can diced tomatoes\n\n\n2 (14.5 ounce) cans chicken broth\n\n\n2 (14 ounce) cans Great Northern beans, undrained\n\n\n3 cups water\n\n\n1 (14 ounce) can chopped spinach, drained\n\n\n1 (8 ounce) can tomato sauce\n\n\n8 slices crisp cooked bacon, crumbled\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon dried parsley\n\n\n1 ½ teaspoons salt\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon dried basil\n\n\n½ pound seashell pasta\n\n\n1/2 cup grated Romano cheese, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine tomatoes, chicken broth, beans, water, spinach, tomato sauce, crumbled bacon, garlic, parsley, salt, garlic powder, pepper, and basil in a large stockpot. Bring to a boil. Cover, reduce heat, and simmer for 40 minutes."},{"recipe_directions":"Add pasta and cook, uncovered, until pasta is tender yet firm to the bite, about 10 minutes. Ladle soup into individual serving bowls. Sprinkle with Romano cheese to serve."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"256\nCalories\n\n\n1g \nFat\n\n\n48g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699640265-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QtyJmV6jBm4eoMc_DbHBK-V2alI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1122606-ae850d12486648b1b8ccd647a7d450f0.jpg"
@@ -1116,59 +1401,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236577/tortellini-in-chicken-broth/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Tortellini in Chicken Broth</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups low-sodium chicken broth\n\n\n⅔ cup water\n\n\n½ (16 ounce) package frozen cheese tortellini\n\n\n1 cup chopped watercress\n\n\n2  scallions, sliced\n\n\n3 drops hot red pepper sauce (Optional)\n\n\n2 tablespoons grated Romano cheese\n\n\n  freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups low-sodium chicken broth\n\n\n⅔ cup water\n\n\n½ (16 ounce) package frozen cheese tortellini\n\n\n1 cup chopped watercress\n\n\n2  scallions, sliced\n\n\n3 drops hot red pepper sauce (Optional)\n\n\n2 tablespoons grated Romano cheese\n\n\n  freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir broth and water together in a pot; bring to a boil."},{"recipe_directions":"Stir frozen tortellini into broth mixture and cook, occasionally stirring, until tortellini floats to the top and filling is hot, 6 to 8 minutes. Stir watercress and scallions into broth mixture and cook until watercress wilts, about 2 minutes. Add hot pepper sauce."},{"recipe_directions":"Sprinkle with Romano cheese and black pepper to serve."},{"recipe_directions":"You can substitute Romano cheese with Parmesan."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"204\nCalories\n\n\n6g \nFat\n\n\n27g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699640271-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QLKqunm4fV-ITSaQ4364mlQQGHs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1515920-f0f2b5ac43264e77903c9695ebafc9d6.jpg"
@@ -1181,59 +1462,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13183/restaurant-style-zuppa-toscana/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Restaurant-Style Zuppa Toscana</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package smoked sausage\n\n\n6 slices bacon\n\n\n¾ cup chopped onion\n\n\n1 ½ teaspoons minced garlic\n\n\n1 quart water\n\n\n2 tablespoons chicken soup base\n\n\n2  potatoes, cut into 1/4-inch slices\n\n\n2 cups kale - washed, dried, and shredded\n\n\n⅓ cup heavy whipping cream"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package smoked sausage\n\n\n6 slices bacon\n\n\n¾ cup chopped onion\n\n\n1 ½ teaspoons minced garlic\n\n\n1 quart water\n\n\n2 tablespoons chicken soup base\n\n\n2  potatoes, cut into 1/4-inch slices\n\n\n2 cups kale - washed, dried, and shredded\n\n\n⅓ cup heavy whipping cream'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C)."},{"recipe_directions":"Place sausage links onto a sheet pan and bake for 25 minutes, or until done. Cut links in half lengthwise, then cut at an angle into 1/2-inch slices."},{"recipe_directions":"Place bacon and onion in a large saucepan and cook over medium heat until onion is almost clear. Remove bacon and crumble. Set aside."},{"recipe_directions":"Add garlic into the pan with onion and cook together, about 1 minute. Add water, chicken soup base, and potatoes, simmer 15 minutes."},{"recipe_directions":"Add crumbled bacon, sausage, kale, and cream. Simmer, about 5 minutes, and serve."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"380\nCalories\n\n\n25g \nFat\n\n\n21g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699640277-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EDHxfoH6OPti4BEps_S0DQ2QsCY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Cream-of-Chicken-and-Gnocchi-Soup-My-Hot-Southern-Mess-1x1-1-2000-11075179e766404f84cc8e735875865f.jpg"
@@ -1247,59 +1524,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237996/cream-of-chicken-and-gnocchi-soup/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Cream of Chicken and Gnocchi Soup</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup margarine\n\n\n¾ cup finely chopped onion\n\n\n¾ cup finely chopped celery\n\n\n½ cup finely grated carrot\n\n\n1 ½ teaspoons minced garlic\n\n\n⅓ cup all-purpose flour\n\n\n4 cups chicken broth\n\n\n¾ cup half-and-half\n\n\n¾ cup milk\n\n\n1 (16 ounce) package potato gnocchi\n\n\n1 ½ cups chopped cooked chicken \n\n\n¾ cup shredded fresh spinach\n\n\n½ teaspoon dried rosemary\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup margarine\n\n\n¾ cup finely chopped onion\n\n\n¾ cup finely chopped celery\n\n\n½ cup finely grated carrot\n\n\n1 ½ teaspoons minced garlic\n\n\n⅓ cup all-purpose flour\n\n\n4 cups chicken broth\n\n\n¾ cup half-and-half\n\n\n¾ cup milk\n\n\n1 (16 ounce) package potato gnocchi\n\n\n1 ½ cups chopped cooked chicken \n\n\n¾ cup shredded fresh spinach\n\n\n½ teaspoon dried rosemary\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt margarine in a large, heavy saucepan over medium heat; cook and stir onion, celery, carrot, and garlic in hot margarine until softened, 5 to 10 minutes. Stir flour into vegetable mixture; cook and stir until vegetables are evenly coated and flour is fragrant, 3 to 4 minutes."},{"recipe_directions":"Pour chicken broth, half-and-half, and milk over vegetable mixture; cook and stir until mixture thickens and comes to a boil, about 5 minutes. Reduce heat and stir in gnocchi, chicken, and spinach; season with rosemary, salt, black pepper, and nutmeg. Cook soup over low heat until gnocchi is tender, 8 to 10 minutes."},{"recipe_directions":"You can buy frozen gnocchi and cook it in a slow cooker for 2 hours, or cook the entire soup in a slow cooker until flavors blend, 1 to 1 1/2 hours."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"311\nCalories\n\n\n21g \nFat\n\n\n20g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699640281-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uvK3OQWMls1_sGgShI2nGc-ynzM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1328849_original-22a3f27453e948c59fba51ebb6367da4.jpg"
@@ -1313,59 +1586,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/35781/california-italian-wedding-soup/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>California Italian Wedding Soup</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound extra-lean ground beef\n\n\n1  egg, lightly beaten\n\n\n2 tablespoons Italian-seasoned bread crumbs\n\n\n1 tablespoon grated Parmesan cheese\n\n\n2 tablespoons shredded fresh basil leaves\n\n\n1 tablespoon chopped Italian flat leaf parsley (Optional)\n\n\n2  green onions, sliced (Optional)\n\n\n5 ¾ cups chicken broth\n\n\n2 cups finely sliced escarole (spinach may be substituted)\n\n\n1  lemon, zested\n\n\n½ cup orzo (rice-shaped pasta), uncooked\n\n\n  grated Parmesan cheese for topping"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound extra-lean ground beef\n\n\n1  egg, lightly beaten\n\n\n2 tablespoons Italian-seasoned bread crumbs\n\n\n1 tablespoon grated Parmesan cheese\n\n\n2 tablespoons shredded fresh basil leaves\n\n\n1 tablespoon chopped Italian flat leaf parsley (Optional)\n\n\n2  green onions, sliced (Optional)\n\n\n5 ¾ cups chicken broth\n\n\n2 cups finely sliced escarole (spinach may be substituted)\n\n\n1  lemon, zested\n\n\n½ cup orzo (rice-shaped pasta), uncooked\n\n\n  grated Parmesan cheese for topping'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together beef, egg, bread crumbs, cheese, basil, parsley, and green onions; shape into 3/4-inch meatballs."},{"recipe_directions":"Pour broth into a large saucepan over high heat. When boiling, drop in meatballs. Stir in escarole, lemon zest, and orzo. Return to a boil; reduce heat to medium. Cook at a slow boil for 10 minutes or until orzo is tender, stirring frequently. Serve sprinkled with cheese."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beef Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"159\nCalories\n\n\n6g \nFat\n\n\n15g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699640285-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AyfiMv8FvUMY0rqGo6DInFe2CB8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1178747-33843015e8bc4757982e9900e33a5f31.jpg"
@@ -1378,59 +1647,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238236/italian-cioppino/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Italian Cioppino</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons unsalted butter\n\n\n1 cup chopped onion\n\n\n3 cloves garlic, minced\n\n\n2 (14.5 ounce) cans chicken broth\n\n\n2 (14.5 ounce) cans diced tomatoes\n\n\n¾ cup white wine\n\n\n½ cup water\n\n\n1 tablespoon dried basil\n\n\n½ teaspoon dried thyme\n\n\n½ teaspoon dried oregano\n\n\n¼ teaspoon red pepper flakes\n\n\n2  bay leaves\n\n\n1 ¼ pounds cod fillets, cut into chunks\n\n\n1 pound large shrimp, peeled and deveined\n\n\n1 pound bay scallops\n\n\n10 small clams in shell, scrubbed\n\n\n10  mussels, cleaned and debearded"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons unsalted butter\n\n\n1 cup chopped onion\n\n\n3 cloves garlic, minced\n\n\n2 (14.5 ounce) cans chicken broth\n\n\n2 (14.5 ounce) cans diced tomatoes\n\n\n¾ cup white wine\n\n\n½ cup water\n\n\n1 tablespoon dried basil\n\n\n½ teaspoon dried thyme\n\n\n½ teaspoon dried oregano\n\n\n¼ teaspoon red pepper flakes\n\n\n2  bay leaves\n\n\n1 ¼ pounds cod fillets, cut into chunks\n\n\n1 pound large shrimp, peeled and deveined\n\n\n1 pound bay scallops\n\n\n10 small clams in shell, scrubbed\n\n\n10  mussels, cleaned and debearded'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a large braising pan over medium heat. Cook onions and garlic in melted butter, stirring occasionally with a wooden spoon, until onions are softened, 5 to 7 minutes."},{"recipe_directions":"Stir chicken broth, diced tomatoes, wine, water, basil, thyme, oregano, red pepper flakes, and bay leaves with the onion and garlic. Place a cover on the braising pan and cook mixture at a simmer until the tomatoes are softened and the broth flavorful, about 30 minutes."},{"recipe_directions":"Fold cod, shrimp, scallops, clams, and mussels into the broth mixture; bring to a boil, reduce heat to low, return cover to pan, and continue to simmer until the clams open, 5 to 7 minutes."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shrimp Soup"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"293\nCalories\n\n\n6g \nFat\n\n\n11g \nCarbs\n\n\n41g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699640291-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/D7jGXHjxh-Fq13gLYBorOAOw1Rs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1650157-d5732defcf994e25a3225f3aa2656cdb.jpg"
@@ -1443,59 +1708,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238014/memes-pasta-fagioli/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>MeMe's Pasta Fagioli</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n1 tablespoon olive oil\n\n\n1 thin slice onion, diced\n\n\n1 stalk celery, diced\n\n\n1  carrot, diced\n\n\n1 teaspoon minced garlic\n\n\n1 (32 ounce) bottle tomato-vegetable juice cocktail (such as V8®) \n\n\n1 (14 ounce) can chicken broth\n\n\n1 tablespoon dried parsley\n\n\n1 tablespoon dried basil\n\n\n1 teaspoon dried oregano\n\n\n  freshly ground black pepper to taste\n\n\n1 ½ cups ditalini pasta\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n1 tablespoon olive oil\n\n\n1 thin slice onion, diced\n\n\n1 stalk celery, diced\n\n\n1  carrot, diced\n\n\n1 teaspoon minced garlic\n\n\n1 (32 ounce) bottle tomato-vegetable juice cocktail (such as V8®) \n\n\n1 (14 ounce) can chicken broth\n\n\n1 tablespoon dried parsley\n\n\n1 tablespoon dried basil\n\n\n1 teaspoon dried oregano\n\n\n  freshly ground black pepper to taste\n\n\n1 ½ cups ditalini pasta\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Cook and stir beef in the hot skillet until browned and crumbly, 5 to 7 minutes. Use a slotted spoon to transfer beef to a paper towel-lined plate to drain; discard grease."},{"recipe_directions":"Heat olive oil in the same skillet over medium-high heat; sauté onion, celery, and carrot until softened, 5 to 10 minutes. Add garlic and sauté until fragrant, 1 to 2 minutes. Stir vegetable juice cocktail, chicken broth, parsley, basil, oregano, and black pepper into vegetable mixture; bring to a boil. Reduce heat and simmer soup for 20 minutes."},{"recipe_directions":"Meanwhile, bring a large pot of lightly salted water to a boil. Cook ditalini pasta in boiling water, stirring occasionally, until tender yet firm to the bite, about 8 minutes. Drain and set aside."},{"recipe_directions":"Stir beef and cannellini beans into soup; cook and stir until soup is heated through, about 10 minutes."},{"recipe_directions":"Spoon about 1/3 cup pasta into each serving bowl; ladle soup over pasta."},{"recipe_directions":"Keep pasta separate from soup for leftovers and combine when reheating."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"299\nCalories\n\n\n10g \nFat\n\n\n33g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699640297-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/V7RB6ZWMKD7hO7Moq60XKoforgY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/5127980-c124fe36a88e4f65982b8a98abaaa7a9.jpg"
@@ -1508,59 +1769,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258270/zuppa-di-pesce-e-frutti-di-mare-mediterranean-seafood-soup/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Zuppa di Pesce e Frutti di Mare (Mediterranean Seafood Soup)</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ pound cod\n\n\n½ pound prawns\n\n\n1  onion, quartered\n\n\n1  carrot, chopped\n\n\n1 stalk celery, chopped\n\n\n  salt and ground black pepper to taste\n\n\n  water to cover\n\n\n6 tablespoons extra-virgin olive oil\n\n\n½ small onion, sliced\n\n\n1  red chile pepper, chopped\n\n\n1 clove garlic, minced\n\n\n½ cup dry white wine\n\n\n½ pound tomatoes, chopped\n\n\n½ pound clams in shell, cleaned\n\n\n½ pound mussels, cleaned and debearded\n\n\n4 slices bread, or more to taste\n\n\n1 clove garlic, halved\n\n\n1 bunch fresh parsley, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ pound cod\n\n\n½ pound prawns\n\n\n1  onion, quartered\n\n\n1  carrot, chopped\n\n\n1 stalk celery, chopped\n\n\n  salt and ground black pepper to taste\n\n\n  water to cover\n\n\n6 tablespoons extra-virgin olive oil\n\n\n½ small onion, sliced\n\n\n1  red chile pepper, chopped\n\n\n1 clove garlic, minced\n\n\n½ cup dry white wine\n\n\n½ pound tomatoes, chopped\n\n\n½ pound clams in shell, cleaned\n\n\n½ pound mussels, cleaned and debearded\n\n\n4 slices bread, or more to taste\n\n\n1 clove garlic, halved\n\n\n1 bunch fresh parsley, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut cod into pieces, reserving any scraps. Peel and devein prawns, reserving shells and any other scraps."},{"recipe_directions":"Place cod scraps and prawn scraps, quartered onion, carrot, celery, salt, and pepper in a large saucepan; cover with water. Bring to a boil; reduce heat and simmer until fish stock is fragrant, 15 to 20 minutes."},{"recipe_directions":"Strain and reserve fish stock."},{"recipe_directions":"Heat olive oil in a saucepan over medium heat; cook and stir sliced onion, red chile pepper, and minced garlic until softened, 5 to 10 minutes."},{"recipe_directions":"Pour in wine; cook for 5 minutes. Add tomatoes; bring to a boil. Add cod, prawns, clams, and mussels; pour in 1 cup fish stock. Simmer until fish is cooked through and clams and mussels have opened, 15 to 20 minutes."},{"recipe_directions":"Toast bread in a toaster. Rub garlic halves on to 1 side of toasted bread."},{"recipe_directions":"Place a piece of toasted bread in the bottom of each serving bowl. Ladle soup over toasted bread and top with parsley."},{"recipe_directions":"Your selection of fish and seafood can vary slightly, but for a traditional Mediterranean assortment choose squid, prawns, scorpion fish, anglerfish, clams, and mussels."},{"recipe_directions":"Cognac can be used in place of the white wine, if desired."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shrimp Soup"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"531\nCalories\n\n\n25g \nFat\n\n\n30g \nCarbs\n\n\n41g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699640303-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ehfKtEF3wVDMW243X4a-pYB97yY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8555261-rich-italian-sausage-and-potato-soup-Melissa-Ciers-4x3-1-20221fb5fbe54801bdf8b784b3765a15.jpg"
@@ -1574,59 +1831,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16690/rich-italian-sausage-and-potato-soup/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Rich Italian Sausage and Potato Soup</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n7"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound Italian sausage\n\n\n¾ cup chopped onion\n\n\n1 slice pancetta bacon, diced\n\n\n1 ¼ teaspoons garlic, minced\n\n\n1 cube chicken bouillon\n\n\n4 cups water\n\n\n2  potatoes, cubed\n\n\n2 cups kale, rinsed and julienned\n\n\n⅓ cup heavy cream"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound Italian sausage\n\n\n¾ cup chopped onion\n\n\n1 slice pancetta bacon, diced\n\n\n1 ¼ teaspoons garlic, minced\n\n\n1 cube chicken bouillon\n\n\n4 cups water\n\n\n2  potatoes, cubed\n\n\n2 cups kale, rinsed and julienned\n\n\n⅓ cup heavy cream'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C)."},{"recipe_directions":"Place sausage links on a sheet pan and bake until cooked through, 15 to 20 minutes. Cut each link in half lengthwise, then into 1/2-inch slices. Set aside for later."},{"recipe_directions":"Sauté onions and pancetta in a 4-quart saucepan over medium heat until onions are translucent, about 10 minutes. Add garlic and sauté for 1 minute."},{"recipe_directions":"Add bouillon, water, and potatoes; bring to a simmer for 15 minutes. Add kale, cream, and reserved sausage; simmer for 5 more minutes and serve."},{"recipe_directions":"You may substitute one ounce of chicken broth for the bouillon cube."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"348\nCalories\n\n\n27g \nFat\n\n\n15g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699640307-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/b1xxLHWMgRR2YDHr2uwFQzRUe1E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Italian-Sausage-Tortellini-Soup-by-Steve-Shaffer-2000-40b3ddf31b9646b38da30c10117e7eba.jpg"
@@ -1640,59 +1893,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16797/italian-sausage-tortellini-soup/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Italian Sausage Tortellini Soup</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (3.5 ounce) link sweet Italian sausage, casings removed\n\n\n1 cup chopped onions\n\n\n2 cloves garlic, minced\n\n\n5 cups beef stock\n\n\n⅓ cup water\n\n\n½ cup red wine\n\n\n4  tomatoes - peeled, seeded and chopped\n\n\n1 cup chopped carrots\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon dried oregano\n\n\n1 cup tomato sauce\n\n\n1  zucchini, chopped\n\n\n8 ounces cheese tortellini\n\n\n1  green bell pepper, chopped\n\n\n1 tablespoon chopped fresh parsley\n\n\n2 tablespoons grated Parmesan cheese for topping"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (3.5 ounce) link sweet Italian sausage, casings removed\n\n\n1 cup chopped onions\n\n\n2 cloves garlic, minced\n\n\n5 cups beef stock\n\n\n⅓ cup water\n\n\n½ cup red wine\n\n\n4  tomatoes - peeled, seeded and chopped\n\n\n1 cup chopped carrots\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon dried oregano\n\n\n1 cup tomato sauce\n\n\n1  zucchini, chopped\n\n\n8 ounces cheese tortellini\n\n\n1  green bell pepper, chopped\n\n\n1 tablespoon chopped fresh parsley\n\n\n2 tablespoons grated Parmesan cheese for topping'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sausage in a large pot over medium-high heat and sauté for 10 minutes, or until well browned. Drain the fat except for about 1 tablespoon, add onions and garlic and sauté for 5 more minutes."},{"recipe_directions":"Next add beef stock, water, wine, tomatoes, carrots, basil, oregano, and tomato sauce. Bring to a boil, reduce heat to low and simmer for 30 minutes, skimming any fat that may surface."},{"recipe_directions":"Add zucchini, tortellini, green bell pepper, and parsley to taste. Simmer for 10 minutes, or until tortellini is fully cooked. Pour into individual bowls and garnish with cheese."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"249\nCalories\n\n\n9g \nFat\n\n\n28g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699640312-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/L8sJULgTduh2ZBNnZrCeldUP1FM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3787079-tuscan-smoked-turkey-bean-soup-Ms.-Chef-Esh-4x3-1-c0c7c41866d142a5ae91395e42266feb.jpg"
@@ -1706,59 +1955,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216095/tuscan-smoked-turkey-bean-soup/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Tuscan Smoked Turkey-Bean Soup</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 4 hrs\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 12 hrs 20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound dry white beans\n\n\n2  smoked turkey legs\n\n\n½  onion, diced\n\n\n2  bay leaves\n\n\n2 stalks celery, diced\n\n\n4 large carrots, sliced\n\n\n1 (14.5 ounce) can petite diced tomatoes, undrained\n\n\n2 tablespoons Italian seasoning\n\n\n  salt and ground black pepper to taste\n\n\n2 tablespoons grated Parmesan cheese, divided"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound dry white beans\n\n\n2  smoked turkey legs\n\n\n½  onion, diced\n\n\n2  bay leaves\n\n\n2 stalks celery, diced\n\n\n4 large carrots, sliced\n\n\n1 (14.5 ounce) can petite diced tomatoes, undrained\n\n\n2 tablespoons Italian seasoning\n\n\n  salt and ground black pepper to taste\n\n\n2 tablespoons grated Parmesan cheese, divided'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place beans into a large bowl, fill the bowl with water, and cover the bowl with a cloth. Allow to soak overnight."},{"recipe_directions":"Drain and rinse beans; place into a large soup pot. Add turkey legs, onion, and bay leaves to the pot, cover with water, then bring to a boil over medium heat. Reduce heat to medium-low; simmer for 3 hours."},{"recipe_directions":"Remove bay leaves and discard. Remove turkey legs from broth, separate meat from the bones and tendons, and return meat to broth."},{"recipe_directions":"Stir in celery, carrots, diced tomatoes, Italian seasoning, salt, and pepper; simmer until celery and carrots are tender, about 1 hour."},{"recipe_directions":"Serve soup in bowls and sprinkle each serving with about 1 teaspoon Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Turkey Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"454\nCalories\n\n\n9g \nFat\n\n\n54g \nCarbs\n\n\n40g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699640315-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/D0jo2H5VDV4B2MSR8RHS7v_rLX8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/187924savory-kale-cannellini-bean-and-potato-soupTammyLynn4x3-e204132a1071475ea24968663b78c096.jpg"
@@ -1772,59 +2017,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/187924/savory-kale-cannellini-bean-and-potato-soup/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Savory Kale, Cannellini Bean, and Potato Soup</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6 \n\n\nYield:\n3 quarts"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons extra-virgin olive oil\n\n\n1  onion, diced\n\n\n¾ cup diced carrot\n\n\n4 cloves garlic, minced\n\n\n3 cups low-sodium chicken broth\n\n\n2 cups water\n\n\n1 cup white wine\n\n\n3  potatoes, halved and sliced\n\n\n½ teaspoon chopped fresh rosemary\n\n\n½ teaspoon chopped fresh sage\n\n\n½ teaspoon chopped fresh thyme\n\n\n1 (16 ounce) can cannellini beans, rinsed and drained\n\n\n2 cups finely chopped kale leaves\n\n\n1 small red chile pepper, seeded and chopped fine\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons extra-virgin olive oil\n\n\n1  onion, diced\n\n\n¾ cup diced carrot\n\n\n4 cloves garlic, minced\n\n\n3 cups low-sodium chicken broth\n\n\n2 cups water\n\n\n1 cup white wine\n\n\n3  potatoes, halved and sliced\n\n\n½ teaspoon chopped fresh rosemary\n\n\n½ teaspoon chopped fresh sage\n\n\n½ teaspoon chopped fresh thyme\n\n\n1 (16 ounce) can cannellini beans, rinsed and drained\n\n\n2 cups finely chopped kale leaves\n\n\n1 small red chile pepper, seeded and chopped fine\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the olive oil in a large Dutch oven over medium heat; cook and stir the onion until softened and translucent, about 5 minutes. Stir in the carrot and garlic, and cook for 5 minutes more."},{"recipe_directions":"Pour in the chicken broth, water, and white wine; stir in the potatoes, rosemary, sage, and thyme. Bring to a boil over high heat, then reduce heat to medium-low, cover, and simmer until the potatoes are tender, about 20 minutes. Add the cannelini beans, kale, chile pepper, and black pepper, and simmer, covered, for 30 more minutes."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Kale Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"262\nCalories\n\n\n5g \nFat\n\n\n39g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699640319-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/M07z7dSLHC9s_bA619d-MTJYCrE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/13126zuppa-toscanafabeveryday-d8b7088e540146c1ae4365fdb166b43f.jpeg"
@@ -1838,59 +2079,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13126/zuppa-toscana/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Zuppa Toscana</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package smoked sausage\n\n\n2  potatoes, cut into 1/4-inch slices\n\n\n¾ cup chopped onion\n\n\n6 slices bacon\n\n\n1 ½ teaspoons minced garlic\n\n\n2 cups kale - washed, dried, and shredded\n\n\n2 tablespoons chicken bouillon powder\n\n\n1 quart water\n\n\n⅓ cup heavy whipping cream"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package smoked sausage\n\n\n2  potatoes, cut into 1/4-inch slices\n\n\n¾ cup chopped onion\n\n\n6 slices bacon\n\n\n1 ½ teaspoons minced garlic\n\n\n2 cups kale - washed, dried, and shredded\n\n\n2 tablespoons chicken bouillon powder\n\n\n1 quart water\n\n\n⅓ cup heavy whipping cream'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C)."},{"recipe_directions":"Arrange sausage links onto a baking sheet; bake in the preheated oven for 25 minutes, or until cooked through. Cut in half lengthwise, then cut at an angle into 1/2-inch slices."},{"recipe_directions":"Place onions and bacon in a large saucepan; cook and stir over medium heat until bacon is crispy and onions are tender. Remove bacon and crumble; set aside."},{"recipe_directions":"Add garlic; cook for 1 minute. Add bouillon powder, water, and potatoes; simmer for 15 minutes."},{"recipe_directions":"Add crumbled bacon, sausage, kale, and cream. Simmer for 4 minutes and serve."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"459\nCalories\n\n\n34g \nFat\n\n\n21g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699640323-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uhxBwqNchDbZ3YDDGhkLt431lMM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(324x0:326x2):format(webp)/4064575_-Pasta-Fazool-Photo-by-Chef-John-1cba3e069979468b884c549cf73cd7a9.jpg"
@@ -1902,59 +2139,55 @@
 Meet Pasta Fazool, the Italian-American Version of Tomato Soup</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/what-is-pasta-fazool/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Meet Pasta Fazool, the Italian-American Version of Tomato Soup</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"When I take the time to comb through my own food-related memories, one person plays a more prominent role than any other: my beloved maternal grandmother, Irene (or \"Nani\", as I call her)."},{"recipe_directions":"Nani comes from an Italian-American family with roots on the Amalfi Coast in Southern Italy, and every childhood visit to her house felt fragranced by garlic, oregano, and bubbling tomato sauce."},{"recipe_directions":"Before I headed off to college (armed with very little culinary knowledge beyond making a passable grilled cheese and getting the perfect toast level on Pop-Tarts), Nani taught me to cook some of her signature dishes, including marinara sauce, meatballs, lasagna, and the hearty, comforting, and vibrant tomato-based soup that she called \"pasta fazool.\""},{"recipe_directions":"In the years since, I've shared giant pots of pasta fazool with friends and loved ones, several of whom have told me that this meal is \"like tomato soup, but way better.\""},{"recipe_directions":"If you're curious to learn exactly what makes pasta fazool so special (and why it deserves a place in your winter dinner line-up), read on."},{"recipe_directions":"Pasta fazool, at its essence, is an Americanization of a classic Italian soup known as pasta e fagioli. \"'Pasta e fagioli' translates to 'pasta and beans,'\" says executive chef Stephen Ennamorati of Pazza on Porter in Boston, Mass."},{"recipe_directions":"While I'm writing the American version as \"pasta fazool\" in this piece, that has more to do with the dish's pronunciation than with any official change in the spelling of \"pasta e fagioli.\""},{"recipe_directions":"Ennamorati explains this semantic quirk like so: \"The term 'fazool' is an Italian-American dialect version of 'fagioli', much in the same way as some Italian-American families call mozzarella 'mootzarel' or capicola 'gabagool.'\""},{"recipe_directions":"While Italian pasta e fagioli and Italian-American pasta fazool are technically the same dish, certain stylistic traits can distinguish them from one another. As this soup's name suggests, the two primary ingredients in both versions are pasta (usually ditalini, a small tube-shaped pasta) and beans (either cannellini beans, Great Northern beans, or Borlotti beans)."},{"recipe_directions":"But according to chef, TV host, and cookbook author Capri Cafaro, one major distinction between Italian pasta e fagioli and its American cousin is \"the consistency. Pasta e fagioli is a bit more like a soup broth and may have more vegetables, the addition of sausage, or a wider variety of beans included.\""},{"recipe_directions":"When it comes to pasta fazool, Cafaro tells us that her Italian-American grandmother (like my Nani) made it with \"tomato sauce, cannellini beans/white beans, and ditalini pasta. It is important to note that there are regional and family variations on these types of recipes. We are of Neapolitan descent, and this is a common dish for Italian-Americans from that region, but everyone has their own twist.\""},{"recipe_directions":"To sum it up, pasta e fagioli feels more like a vegetable and bean soup, whereas the Italian American pasta fazool created by southern Italian immigrants features a \"broth\" that's more like a marinara sauce (made with crushed tomatoes, olive oil, garlic, onion, and seasonings), along with ample helpings of white beans and pasta."},{"recipe_directions":"Cafaro's belief that \"everyone has their own twist\" on pasta fazool is absolutely correct. My Nani tended to make her pasta fazool on the thicker side, so it felt more like a scoopable pasta dish than like a soup, but if you prefer a brothier variation, then it's easy to add water, chicken or veggie stock, or wine to the soup to thin it out."},{"recipe_directions":"I learned to make pasta fazool as a vegetarian-friendly dish, but I now like to start by cooking pancetta in olive oil along with onion and garlic to give the soup a porky backbone. If you'd like to add substance while keeping the dish meat-free, try including hearty vegetables like escarole, Tuscan kale, carrots, and celery."},{"recipe_directions":"And however you choose to zhuzh up your pasta fazool, don't forget to top your bowl with a dusting of grated Parmesan and to keep a hunk of crusty bread ready for dipping."},{"recipe_directions":"Related:"}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699640328-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ib3nh9FNItNN2k0Azwn3RlWKukE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(719x0:721x2):format(webp)/8569554-27ddec0474f14ce3a157ee53a39cf207.jpg"
@@ -1967,59 +2200,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217129/tuscan-chard-and-cannellini-bean-soup/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Tuscan Chard and Cannellini Bean Soup</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 slices smoked bacon, finely chopped\n\n\n1  onion, chopped\n\n\n1 clove garlic, minced\n\n\n¼ teaspoon freshly grated nutmeg (Optional)\n\n\n⅛ teaspoon crushed red pepper flakes (Optional)\n\n\n6 cups chicken broth, or more as needed\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed - or more to taste\n\n\n2 tablespoons chopped sun-dried tomatoes\n\n\n2 ounces Parmesan cheese rind\n\n\n1 bunch red or white Swiss chard\n\n\n¼ cup uncooked small pasta, such as orzo or pastina\n\n\n5  large fresh sage leaves, minced\n\n\n5 leaves fresh basil, coarsely chopped (Optional)\n\n\n1 tablespoon grated Parmesan cheese, divided (Optional)\n\n\n1 tablespoon extra-virgin olive oil, divided (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 slices smoked bacon, finely chopped\n\n\n1  onion, chopped\n\n\n1 clove garlic, minced\n\n\n¼ teaspoon freshly grated nutmeg (Optional)\n\n\n⅛ teaspoon crushed red pepper flakes (Optional)\n\n\n6 cups chicken broth, or more as needed\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed - or more to taste\n\n\n2 tablespoons chopped sun-dried tomatoes\n\n\n2 ounces Parmesan cheese rind\n\n\n1 bunch red or white Swiss chard\n\n\n¼ cup uncooked small pasta, such as orzo or pastina\n\n\n5  large fresh sage leaves, minced\n\n\n5 leaves fresh basil, coarsely chopped (Optional)\n\n\n1 tablespoon grated Parmesan cheese, divided (Optional)\n\n\n1 tablespoon extra-virgin olive oil, divided (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large saucepan over medium heat, cook the bacon, onion, garlic, nutmeg, and red pepper flakes until the onion is translucent, about 5 minutes. Pour in chicken broth and cannellini beans, and bring the mixture to a boil; stir in sun-dried tomatoes and the piece of Parmesan cheese rind. Reduce heat to a simmer, and cook while you prepare the chard, about 10 minutes."},{"recipe_directions":"Cut the stems from the chard, and slice the stems into pieces about 3/4-inch long. Cut the chard leaves into 1-inch wide ribbons. Stir the chard stems and pasta into the soup, setting aside the leaves. Reduce heat to a simmer, and gently simmer until the pasta is tender, about 10 minutes. Stir the chard leaves, sage, and basil into the soup, and simmer just until wilted, 3 to 4 minutes."},{"recipe_directions":"Ladle soup into bowls and top with Parmesan cheese and a drizzle of olive oil, if desired."},{"recipe_directions":"If you have one, add a Parmesan rind to the soup as it cooks then remove before serving. If you use pastinas (tubettini, ditalini, pastina, acini de pepe,orzo, etc) or additional beans you made need to add more chicken broth to pot (and especially if reheating leftovers) as the pasta absorbs much of the broth. This does freeze very well (add that extra chicken broth to reheat) Basil can be used instead of or in addition to the sage. If sage is used mince it fine; the basil can be chopped coarsely. You can substitute a can of diced Roma tomatoes for the sun-dried tomatoes if you don't have those. I serve this with bruschetta, or homemade garlic croutons."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"215\nCalories\n\n\n10g \nFat\n\n\n22g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699640331-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-moHCSIEwuDYWW2031DM3y_iCEc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2885623-garbanzo-bean-soup-Buckwheat-Queen-4x3-1-3f30cb27e58b4d1c8315ee38d236b813.jpg"
@@ -2033,59 +2262,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/55059/garbanzo-bean-soup/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Garbanzo Bean Soup</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14.5 ounce) can peeled and diced tomatoes\n\n\n1 teaspoon olive oil\n\n\n2 (15.5 ounce) cans garbanzo beans\n\n\n  salt and pepper to taste\n\n\n2 sprigs fresh rosemary\n\n\n1 cup acini di pepe pasta"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14.5 ounce) can peeled and diced tomatoes\n\n\n1 teaspoon olive oil\n\n\n2 (15.5 ounce) cans garbanzo beans\n\n\n  salt and pepper to taste\n\n\n2 sprigs fresh rosemary\n\n\n1 cup acini di pepe pasta'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the tomatoes, olive oil and 1 1/2 cans of the beans in a large saucepan. Bring to a boil. Puree the remaining 1/2 can of garbanzo beans using a blender or food processor, and stir into the saucepan. Place the sprigs of rosemary into the pan without breaking off the leaves. The sprigs will be removed before serving."},{"recipe_directions":"Add acini de pepe pasta and simmer until pasta is soft, stirring gently to prevent sticking. Remove rosemary, and season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"502\nCalories\n\n\n5g \nFat\n\n\n95g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699640336-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WrEiQ_InwqwLMqmh26T4pF_Gevw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/714650-9b79e956e840401d8460512138051b26.jpg"
@@ -2098,59 +2323,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/77836/cabbage-and-smoked-sausage-soup/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Cabbage and Smoked Sausage Soup</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 pound smoked sausage, sliced\n\n\n3 cups water\n\n\n1 head cabbage, cored and coarsely chopped\n\n\n3  carrots, sliced\n\n\n3 stalks celery, sliced\n\n\n⅓ cup uncooked long grain white rice\n\n\n1 (15 ounce) can red beans, with liquid\n\n\n1 (8 ounce) can tomato sauce\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n2 cubes  chicken bouillon\n\n\n  salt to taste\n\n\n1  bay leaf\n\n\n½ teaspoon crushed dried thyme"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 pound smoked sausage, sliced\n\n\n3 cups water\n\n\n1 head cabbage, cored and coarsely chopped\n\n\n3  carrots, sliced\n\n\n3 stalks celery, sliced\n\n\n⅓ cup uncooked long grain white rice\n\n\n1 (15 ounce) can red beans, with liquid\n\n\n1 (8 ounce) can tomato sauce\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n2 cubes  chicken bouillon\n\n\n  salt to taste\n\n\n1  bay leaf\n\n\n½ teaspoon crushed dried thyme'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the vegetable oil in a large pot over medium heat, and cook the onion until lightly browned. Place sausage in the pot, and pour in water. Mix in cabbage, carrots, celery, rice, beans, tomato sauce, and crushed tomatoes. Dissolve bouillon in the mixture. Season with salt, bay leaf, and thyme. Bring to a boil. Reduce heat to low, and cook at least 1 hour, until vegetables are tender and rice is cooked."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Cabbage Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"404\nCalories\n\n\n21g \nFat\n\n\n37g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699640340-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IGKK4NCY-RsnVIvWzuiA-2JvAKw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/528471-ac54f310e601440ba54a4b18478cfd59.jpg"
@@ -2163,59 +2384,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25688/pasta-e-fagioli-a-la-chez-ivano/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Pasta e Fagioli a la Chez Ivano</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n20 \n\n\nYield:\n8 quarts"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 pounds lean ground beef\n\n\n½ cup olive oil\n\n\n4 cups chopped onion\n\n\n2 cups chopped celery\n\n\n2 (4.5 ounce) jars bottled minced garlic\n\n\n1 teaspoon coarsely ground black pepper\n\n\n8 (14 ounce) cans beef broth\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n1 (6 ounce) can tomato paste\n\n\n2 ½ teaspoons dried thyme\n\n\n2 ½ teaspoons dried basil\n\n\n2 ½ teaspoons dried oregano\n\n\n2 tablespoons dried parsley\n\n\n2 cups ditalini pasta\n\n\n2 (15 ounce) cans kidney beans, drained and rinsed"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 pounds lean ground beef\n\n\n½ cup olive oil\n\n\n4 cups chopped onion\n\n\n2 cups chopped celery\n\n\n2 (4.5 ounce) jars bottled minced garlic\n\n\n1 teaspoon coarsely ground black pepper\n\n\n8 (14 ounce) cans beef broth\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n1 (6 ounce) can tomato paste\n\n\n2 ½ teaspoons dried thyme\n\n\n2 ½ teaspoons dried basil\n\n\n2 ½ teaspoons dried oregano\n\n\n2 tablespoons dried parsley\n\n\n2 cups ditalini pasta\n\n\n2 (15 ounce) cans kidney beans, drained and rinsed'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large pot over medium heat, cook beef until no longer pink. Drain and set aside."},{"recipe_directions":"In the same pot, heat the olive oil. Cook onion, celery, garlic and black pepper until vegetables are tender, 10 minutes. Stir in beef broth, crushed tomatoes and tomato paste. Season with thyme, basil, oregano and parsley. Cover, reduce heat and simmer 1 hour. (At this point, you may put the pot on a back burner to keep warm and continue with the next steps about 1 hour prior to serving, if you wish.)"},{"recipe_directions":"Stir in the beef and simmer 15 minutes. Stir in the pasta and cook until al dente, 8 to 10 minutes. Stir in the beans and heat through, 10 to 15 minutes."},{"recipe_directions":"The magazine version of this recipe scales it down to serve 8."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"322\nCalories\n\n\n15g \nFat\n\n\n27g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699640344-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Bm1EXvj0L-Vq6ozpztsie_aeerg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3219698-3792d8d8e97c4dadb5481ff348536e97.jpg"
@@ -2228,59 +2445,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25713/best-italian-sausage-soup/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Best Italian Sausage Soup</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds sweet Italian sausage\n\n\n2 cloves garlic, minced\n\n\n2 small onions, chopped\n\n\n2 (16 ounce) cans whole peeled tomatoes\n\n\n1 ¼ cups dry red wine\n\n\n5 cups beef broth\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon dried oregano\n\n\n2  zucchini, sliced\n\n\n1  green bell pepper, chopped\n\n\n3 tablespoons chopped fresh parsley\n\n\n1 (16 ounce) package spinach fettuccine pasta\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds sweet Italian sausage\n\n\n2 cloves garlic, minced\n\n\n2 small onions, chopped\n\n\n2 (16 ounce) cans whole peeled tomatoes\n\n\n1 ¼ cups dry red wine\n\n\n5 cups beef broth\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon dried oregano\n\n\n2  zucchini, sliced\n\n\n1  green bell pepper, chopped\n\n\n3 tablespoons chopped fresh parsley\n\n\n1 (16 ounce) package spinach fettuccine pasta\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large pot, cook sausage over medium heat until brown. Remove with a slotted spoon, and drain on paper towels. Drain fat from pan, reserving 3 tablespoons."},{"recipe_directions":"Cook garlic and onion in reserved fat for 2 to 3 minutes. Stir in tomatoes, wine, broth, basil, and oregano. Transfer to a slow cooker, and stir in sausage, zucchini, bell pepper, and parsley."},{"recipe_directions":"Cover, and cook on Low for 4 to 6 hours."},{"recipe_directions":"Bring a pot of lightly salted water to a boil. Cook pasta in boiling water until al dente, about 7 minutes. Drain water, and add pasta to the slow cooker. Simmer for a few minutes, and season with salt and pepper before serving."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Pork Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"436\nCalories\n\n\n18g \nFat\n\n\n44g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699640347-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/S52LvM-SLOJAEBo99w6ldDx06GQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/9062124-224574514ff34f2a8146db2aca84f6db.jpg"
@@ -2293,59 +2506,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283364/slow-cooker-pasta-fagioli-soup/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Slow Cooker Pasta Fagioli Soup</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 4 hrs 5 mins\n\n\nTotal Time:\n 4 hrs 25 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds ground beef\n\n\n1 (32 ounce) carton beef stock\n\n\n4 cups beef broth\n\n\n2 (14.5 ounce) cans Italian-style diced tomatoes\n\n\n1 (28 ounce) jar spaghetti sauce\n\n\n1 (15 ounce) can red kidney beans, drained\n\n\n1 (15 ounce) can white kidney beans, drained\n\n\n3 stalks celery, diced\n\n\n2 medium carrots, diced\n\n\n½ cup chopped onion\n\n\n5 tablespoons chopped fresh parsley\n\n\n2 teaspoons dried oregano\n\n\n2 teaspoons ground black pepper\n\n\n1 teaspoon salt\n\n\n¼ teaspoon hot pepper sauce (such as Tabasco®)\n\n\n1 cup ditalini pasta"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds ground beef\n\n\n1 (32 ounce) carton beef stock\n\n\n4 cups beef broth\n\n\n2 (14.5 ounce) cans Italian-style diced tomatoes\n\n\n1 (28 ounce) jar spaghetti sauce\n\n\n1 (15 ounce) can red kidney beans, drained\n\n\n1 (15 ounce) can white kidney beans, drained\n\n\n3 stalks celery, diced\n\n\n2 medium carrots, diced\n\n\n½ cup chopped onion\n\n\n5 tablespoons chopped fresh parsley\n\n\n2 teaspoons dried oregano\n\n\n2 teaspoons ground black pepper\n\n\n1 teaspoon salt\n\n\n¼ teaspoon hot pepper sauce (such as Tabasco®)\n\n\n1 cup ditalini pasta'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Cook and stir ground beef in the hot skillet until browned and crumbly, 5 to 7 minutes. Drain and discard grease. Transfer beef to a slow cooker."},{"recipe_directions":"Add stock, broth, tomatoes, spaghetti sauce, red and white kidney beans, celery, carrot, onion, parsley, oregano, pepper, salt, and hot sauce to the slow cooker."},{"recipe_directions":"Cover and cook on Low for 7 to 8 hours or High for 4 to 6 hours, adding pasta during the last 15 minutes."},{"recipe_directions":"You can use venison in place of ground beef and bow tie pasta in place of ditalini."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"355\nCalories\n\n\n15g \nFat\n\n\n33g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699640351-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yf4IgixHN9Csu2VfhjWZoSg5KXI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7272898-d8484026461f4840b163abad7e9cbaa5.jpg"
@@ -2358,59 +2567,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229992/creamy-chicken-tortellini-soup/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Creamy Chicken Tortellini Soup</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound chicken breast, cut into bite-sized pieces\n\n\n1 (14.5 ounce) can chicken broth\n\n\n1 (9 ounce) package refrigerated cheese tortellini\n\n\n2 (10.5 ounce) cans cream of chicken soup\n\n\n2 cups half-and-half\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n½ teaspoon thyme\n\n\n¼ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound chicken breast, cut into bite-sized pieces\n\n\n1 (14.5 ounce) can chicken broth\n\n\n1 (9 ounce) package refrigerated cheese tortellini\n\n\n2 (10.5 ounce) cans cream of chicken soup\n\n\n2 cups half-and-half\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n½ teaspoon thyme\n\n\n¼ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a saucepan of water to a boil. Cook chicken in boiling water until no longer pink in the center, 7 to 10 minutes; drain."},{"recipe_directions":"Bring chicken broth to a boil in a soup pot; add cheese tortellini, reduce heat to medium-low, and cook until tortellini are cooked through and firm to the bite, about 8 minutes. Stir chicken, cream of chicken soup, half-and-half, spinach, thyme, and black pepper with the tortellini; bring to a simmer and continue cooking until hot, 7 to 10 minutes. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"529\nCalories\n\n\n29g \nFat\n\n\n40g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699640356-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4h5ZonOjMTxhVtq4ZVOnRMgqmWY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(424x0:426x2):format(webp)/1125360-italian-vegetable-soup-1Baker2Baker-1x1-1-7a604e530d824be4b473b707335cbd28.jpg"
@@ -2424,59 +2629,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13028/italian-vegetable-soup/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Italian Vegetable Soup</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n1 cup chopped onion\n\n\n1 cup chopped celery\n\n\n1 cup chopped carrots\n\n\n2 cloves garlic, minced\n\n\n1 (14.5 ounce) can peeled and diced tomatoes\n\n\n1 (15 ounce) can tomato sauce\n\n\n2 (19 ounce) cans kidney beans, drained and rinsed\n\n\n2 cups water\n\n\n5 teaspoons beef bouillon granules\n\n\n1 tablespoon dried parsley\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon dried basil\n\n\n2 cups chopped cabbage\n\n\n1 (15.25 ounce) can whole kernel corn\n\n\n1 (15 ounce) can green beans\n\n\n1 cup macaroni"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n1 cup chopped onion\n\n\n1 cup chopped celery\n\n\n1 cup chopped carrots\n\n\n2 cloves garlic, minced\n\n\n1 (14.5 ounce) can peeled and diced tomatoes\n\n\n1 (15 ounce) can tomato sauce\n\n\n2 (19 ounce) cans kidney beans, drained and rinsed\n\n\n2 cups water\n\n\n5 teaspoons beef bouillon granules\n\n\n1 tablespoon dried parsley\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon dried basil\n\n\n2 cups chopped cabbage\n\n\n1 (15.25 ounce) can whole kernel corn\n\n\n1 (15 ounce) can green beans\n\n\n1 cup macaroni'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ground beef in a large soup pot. Cook over medium heat until evenly browned. Drain excess fat. Stir in onion, celery, carrots, garlic, chopped tomatoes, tomato sauce, beans, water and bouillon. Season with parsley, oregano and basil. Simmer for 20 minutes."},{"recipe_directions":"Stir in cabbage, corn, green beans and pasta. Bring to a boil, then reduce heat. Simmer until vegetables are tender and pasta is al dente. Add more water if needed."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"441\nCalories\n\n\n17g \nFat\n\n\n53g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699640359-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XtJCMJWoP5YYB4-c0PrZ3q-cshc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(967x0:969x2):format(webp)/4859369-69b30012bbe44d26a5c0a382d69f3c61.jpg"
@@ -2489,59 +2690,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230392/italian-sausage-and-tomato-soup/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Italian Sausage and Tomato Soup</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 (16 ounce) package bulk turkey sausage\n\n\n1 large onion, cut into chunks\n\n\n4 cloves garlic, chopped\n\n\n1 pinch Italian seasoning, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n2  carrots, thinly sliced\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (14.5 ounce) can beef broth\n\n\n½ (14.5 ounce) can chicken broth\n\n\n1 (6.5 ounce) can tomato sauce\n\n\n2  bay leaves\n\n\n1 cup rigatoni pasta"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 (16 ounce) package bulk turkey sausage\n\n\n1 large onion, cut into chunks\n\n\n4 cloves garlic, chopped\n\n\n1 pinch Italian seasoning, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n2  carrots, thinly sliced\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (14.5 ounce) can beef broth\n\n\n½ (14.5 ounce) can chicken broth\n\n\n1 (6.5 ounce) can tomato sauce\n\n\n2  bay leaves\n\n\n1 cup rigatoni pasta'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large pot over medium heat; cook and stir turkey sausage is browned, about 5 minutes. Add onion and garlic, cooking and stirring until onion is tender, about 5 minutes more. Season with Italian seasoning, salt, and black pepper. Stir in carrots; cook and stir until carrots start to soften, 5 to 7 minutes."},{"recipe_directions":"Pour beans, diced tomatoes, beef broth, chicken broth, and tomato sauce into turkey mixture. Stir in bay leaves. Continue to simmer until carrots are tender, about 5 minutes. Add rigatoni pasta; cook and stir until pasta is cooked through but firm to the bite, about 13 minutes."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Tomato Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"291\nCalories\n\n\n11g \nFat\n\n\n28g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699640363-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KKfbtSQC0kMYuFXhhIj3N3azBvw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2025x0:2027x2):format(webp)/8016927-413f2748d0254e27a1acfe7a70c91fe4.jpg"
@@ -2554,59 +2751,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279875/italian-white-bean-and-sausage-stew/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Italian White Bean and Sausage Stew</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs 45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups dry cannellini beans\n\n\n4 (6 ounce) Italian sausage links with garlic and fennel\n\n\n1 cup chopped yellow onion\n\n\n⅓ cup dry white wine\n\n\n1 teaspoon freshly ground black pepper\n\n\n¼ teaspoon red pepper flakes\n\n\n1  bay leaf\n\n\n6 cups water, or to taste\n\n\n1 teaspoon salt, plus more to taste \n\n\n4 cups chopped kale\n\n\n1 tablespoon extra-virgin olive oil, or to taste\n\n\n6 tablespoons grated Parmigiano-Reggiano cheese, or to taste\n\n\n6 pinches red pepper flakes"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups dry cannellini beans\n\n\n4 (6 ounce) Italian sausage links with garlic and fennel\n\n\n1 cup chopped yellow onion\n\n\n⅓ cup dry white wine\n\n\n1 teaspoon freshly ground black pepper\n\n\n¼ teaspoon red pepper flakes\n\n\n1  bay leaf\n\n\n6 cups water, or to taste\n\n\n1 teaspoon salt, plus more to taste \n\n\n4 cups chopped kale\n\n\n1 tablespoon extra-virgin olive oil, or to taste\n\n\n6 tablespoons grated Parmigiano-Reggiano cheese, or to taste\n\n\n6 pinches red pepper flakes'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak beans in cold water, 8 hours to overnight."},{"recipe_directions":"Drain beans and set aside."},{"recipe_directions":"Make a cut down the center of each sausage and peel off the casing. Transfer sausage into a dry soup pot over medium-high heat. Brown sausage, while breaking it up into small pieces with a wooden spoon, 5 to 7 minutes. Cook and stir until juices start to caramelize and stick to the bottom of the pan, creating a fond, 3 to 5 minutes."},{"recipe_directions":"Add onion and stir to coat in the rendered sausage fat. Cook until onion starts to turn translucent, about 5 minutes. Add white wine to deglaze the pot. Add black pepper, red pepper flakes, bay leaf, and water."},{"recipe_directions":"Add drained beans, increase heat to high, and bring to a boil. Once boiling, reduce heat to medium-low and simmer for 30 minutes. Add salt and continue to simmer until beans are tender, about 30 more minutes. Taste beans to be certain they are perfectly cooked."},{"recipe_directions":"Smash about 1/4 of the beans with a potato masher to give the stew a creamy texture if desired. Stir in chopped kale, increase heat to medium, and cook until tender, 10 to 15 minutes. Taste and adjust salt."},{"recipe_directions":"Ladle hot soup into bowls, drizzle with olive oil, and sprinkle with Parmigiano-Reggiano cheese and a pinch of red pepper flakes."},{"recipe_directions":"Instead of soaking dried beans overnight, you can use canned beans. Dried beans come out better though and are less expensive."},{"recipe_directions":"Use any sausage you want. If your sausage doesn't have garlic in it, add 2 cloves minced garlic 5 minutes after you add onion. Pecorino can be used instead of Parmigiano-Reggiano."},{"recipe_directions":"If you don't have wine, you can use 2 tablespoons wine vinegar and 1/4 cup water, or just use water."},{"recipe_directions":"The amount of water you add will depend on how thick you want the stew. I use about 7 1/2 cups."},{"recipe_directions":"You can use any greens for the kale, like spinach, Swiss chard, mustard greens, or stinging nettles. Cooking time will vary based on what you use."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"669\nCalories\n\n\n39g \nFat\n\n\n43g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699640367-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8zhU9UAHeiJxcNJBrmhtYtpXoNk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4057992-8f0562bc4fca4df4ad359b3128e916da.jpg"
@@ -2619,59 +2812,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239635/quick-super-delicious-zuppa-toscana/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Quick Super-Delicious Zuppa Toscana</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound bulk mild Italian sausage\n\n\n1 ¼ teaspoons red pepper flakes\n\n\n4 slices bacon, cut into 1/2 inch pieces\n\n\n1 large onion, diced\n\n\n1 tablespoon minced garlic\n\n\n8 ¾ cups chicken broth\n\n\n6  potatoes, thinly sliced \n\n\n6 cups chopped fresh kale\n\n\n1 cup heavy whipping cream"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound bulk mild Italian sausage\n\n\n1 ¼ teaspoons red pepper flakes\n\n\n4 slices bacon, cut into 1/2 inch pieces\n\n\n1 large onion, diced\n\n\n1 tablespoon minced garlic\n\n\n8 ¾ cups chicken broth\n\n\n6  potatoes, thinly sliced \n\n\n6 cups chopped fresh kale\n\n\n1 cup heavy whipping cream'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook and stir Italian sausage and red pepper flakes in a Dutch oven over medium-high heat until sausage is browned and crumbly, 10 to 15 minutes. Transfer sausage mixture to a bowl."},{"recipe_directions":"Stir bacon into the same Dutch oven and cook over medium heat until bacon is crisp, about 10 minutes. Drain fat, leaving a few tablespoons of drippings in the Dutch oven."},{"recipe_directions":"Stir onion and garlic into bacon; cook and stir until onions are soft and translucent, about 5 minutes. Pour chicken broth into bacon mixture; bring to a boil. Stir potatoes and kale into broth; cook until potatoes are tender and soup is flavorful, about 15 minutes."},{"recipe_directions":"Stir sausage and heavy whipping cream into soup, reduce heat to medium, and cook until soup is heated through, about 5 minutes more."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"560\nCalories\n\n\n32g \nFat\n\n\n51g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699640371-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bHBPG33T_DmrUqnI-etSJn8ydUI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/13287-creamy-italian-white-bean-soup-DDMFS-4x3-2e7c6b3ff12f4349802c135d17ac8504.jpg"
@@ -2685,59 +2874,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13287/creamy-italian-white-bean-soup/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Creamy Italian White Bean Soup</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 stalk celery, chopped\n\n\n1 clove garlic, minced\n\n\n2 (16 ounce) cans white kidney beans, rinsed and drained\n\n\n1 (14 ounce) can chicken broth\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon dried thyme\n\n\n2 cups water\n\n\n1 bunch fresh spinach, rinsed and thinly sliced\n\n\n1 tablespoon lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 stalk celery, chopped\n\n\n1 clove garlic, minced\n\n\n2 (16 ounce) cans white kidney beans, rinsed and drained\n\n\n1 (14 ounce) can chicken broth\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon dried thyme\n\n\n2 cups water\n\n\n1 bunch fresh spinach, rinsed and thinly sliced\n\n\n1 tablespoon lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large saucepan, heat oil. Cook onion and celery in oil for 5 to 8 minutes, or until tender. Add garlic, and cook for 30 seconds, continually stirring."},{"recipe_directions":"Stir in beans, chicken broth, pepper, thyme and 2 cups water. Bring to a boil, reduce heat, and then simmer for 15 minutes."},{"recipe_directions":"With slotted spoon, remove 2 cups of the bean and vegetable mixture from soup and set aside."},{"recipe_directions":"In blender at low speed, blend remaining soup in small batches until smooth, (it helps to remove the center piece of the blender lid to allow steam to escape.)"},{"recipe_directions":"Once blended pour soup back into stock pot and stir in reserved beans."},{"recipe_directions":"Bring to a boil, occasionally stirring. Stir in spinach and cook 1 minute or until spinach is wilted."},{"recipe_directions":"Stir in lemon juice and remove from heat and serve with fresh grated Parmesan cheese on top."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"245\nCalories\n\n\n5g \nFat\n\n\n38g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699640375-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9-N2mpOk29fQR5lo54GZfm662nk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1499x0:1501x2):format(webp)/9439831-7406f9fe1c654c7690a3b514b4820337.jpg"
@@ -2750,59 +2935,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269899/instant-pot-zuppa-toscana/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Instant Pot® Zuppa Toscana</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 pound bulk Italian sausage\n\n\n1 large onion, chopped\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon Italian seasoning\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon red pepper flakes\n\n\n4 medium potatoes, cubed\n\n\n4 cups chicken broth\n\n\n4 cups chopped kale\n\n\n1 cup half-and-half"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 pound bulk Italian sausage\n\n\n1 large onion, chopped\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon Italian seasoning\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon red pepper flakes\n\n\n4 medium potatoes, cubed\n\n\n4 cups chicken broth\n\n\n4 cups chopped kale\n\n\n1 cup half-and-half'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot®) and select Saute function."},{"recipe_directions":"Heat oil in the cooker. Add sausage and cook until no longer pink, about 3 minutes. Stir in onion and garlic; cook until softened and translucent, about 3 minutes. Stir in Italian seasoning, salt, pepper, and red pepper flakes. Add potatoes and chicken broth. Close and lock the lid. Select high pressure and set timer for 5 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure using the natural-release method according to manufacturer's instructions, 10 to 40 minutes. Unlock and remove the lid."},{"recipe_directions":"Stir kale into the cooker. Select Saute function. Cook, uncovered, for 2 minutes. Stir in half-and-half. Turn off the cooker and serve."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"},{"recipe_tags":"Soups and Stews"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"399\nCalories\n\n\n22g \nFat\n\n\n35g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699640380-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vUMdOtSnKycJi623LechFbr6ymg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5742440-tuscan-fish-stew-Chef-John-1x1-1-d2c771d3fd6242a2bc26349452ebbc53.jpg"
@@ -2816,59 +2997,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268010/tuscan-fish-stew/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Tuscan Fish Stew</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n2 \n\n\nYield:\n2 large portions"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups cherry tomatoes, halved\n\n\n1 cup clam juice\n\n\n4 tablespoons olive oil, divided\n\n\n¼ cup sliced green onions\n\n\n4 cloves garlic, sliced\n\n\n1  anchovy fillet\n\n\n2 pinches red pepper flakes\n\n\n12 ounces halibut, cut into 2-inch pieces\n\n\n1 pound shrimp, peeled and deveined\n\n\n  salt to taste\n\n\n1 tablespoon chopped fresh parsley\n\n\n½ tablespoon chopped fresh basil\n\n\n½ tablespoon chopped fresh oregano\n\n\n1 pinch minced fresh rosemary"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups cherry tomatoes, halved\n\n\n1 cup clam juice\n\n\n4 tablespoons olive oil, divided\n\n\n¼ cup sliced green onions\n\n\n4 cloves garlic, sliced\n\n\n1  anchovy fillet\n\n\n2 pinches red pepper flakes\n\n\n12 ounces halibut, cut into 2-inch pieces\n\n\n1 pound shrimp, peeled and deveined\n\n\n  salt to taste\n\n\n1 tablespoon chopped fresh parsley\n\n\n½ tablespoon chopped fresh basil\n\n\n½ tablespoon chopped fresh oregano\n\n\n1 pinch minced fresh rosemary'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Puree cherry tomatoes and clam juice in a blender until smooth. Press mixture through a fine-mesh strainer into a bowl."},{"recipe_directions":"Combine 3 tablespoons olive oil, green onions, garlic, anchovy, and 1 pinch red pepper flakes in a cold plan. Place over medium heat. Cook and stir until garlic and onions just start to soften, about 3 minutes. Stir in the tomato mixture. Bring to a simmer over medium-high heat. Reduce heat to medium and simmer stew until color deepens, about 10 minutes."},{"recipe_directions":"Add halibut and shrimp to the stew. Season with salt. Increase heat to high. Cover pan and cook until fish flakes easily with a fork, about 5 minutes. Stir in parsley, basil, oregano, and rosemary. Pour stew into a warm bowl. Drizzle in remaining olive oil and sprinkle 1 pinch red pepper flakes on top. Serve with crusty bread."},{"recipe_directions":"Any tomato product will work in this, but I really like cherry tomatoes here, since they provide a fragrant freshness you just won't get with a can or jar. You do need to strain them after blending, but the few extra minutes of work will be well worth the effort."},{"recipe_directions":"Fish stock or chicken broth can be substituted for the clam juice."},{"recipe_directions":"Use any mix of white fish and shellfish that works best for you. If your shrimp is small, add it after larger chunks of seafood have already started cooking."},{"recipe_directions":"You can use 2 tablespoons of any combination of the Italian herbs mentioned."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"672\nCalories\n\n\n34g \nFat\n\n\n14g \nCarbs\n\n\n76g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699640383-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3j4OEQ1UHRlo7SO_Io5rZP2Ehks=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4483317-23df85d2f9794990a7384af64a402236.jpg"
@@ -2881,59 +3058,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13434/mamas-italian-wedding-soup/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Mama's Italian Wedding Soup</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound extra-lean ground beef\n\n\n2  eggs, beaten\n\n\n¼ cup dried bread crumbs\n\n\n2 tablespoons grated Parmesan cheese\n\n\n1 teaspoon dried basil\n\n\n3 tablespoons minced onion\n\n\n2 ½ quarts chicken broth\n\n\n2 cups spinach - packed, rinsed and thinly sliced\n\n\n1 cup seashell pasta\n\n\n¾ cup diced carrots"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound extra-lean ground beef\n\n\n2  eggs, beaten\n\n\n¼ cup dried bread crumbs\n\n\n2 tablespoons grated Parmesan cheese\n\n\n1 teaspoon dried basil\n\n\n3 tablespoons minced onion\n\n\n2 ½ quarts chicken broth\n\n\n2 cups spinach - packed, rinsed and thinly sliced\n\n\n1 cup seashell pasta\n\n\n¾ cup diced carrots'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, combine the beef, egg, bread crumbs, cheese, basil and onion. Shape mixture into 3/4-inch balls and set aside."},{"recipe_directions":"In a large stockpot heat chicken broth to boiling; stir in the spinach, pasta, carrot and meatballs. Return to boil; reduce heat to medium. Cook, stirring frequently, at a slow boil for 10 minutes or until pasta is al dente, and meatballs are no longer pink inside. Serve hot with Parmesan cheese sprinkled on top."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beef Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"169\nCalories\n\n\n7g \nFat\n\n\n13g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699640387-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/I4aB_UFbUbDHcgxkX2hQ_TfgICY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3398657-hearty-italian-meatball-soup-Allrecipes-Magazine-4x3-1-5f34999c0ba54ffe9260a3b3137a5ef1.jpg"
@@ -2947,59 +3120,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231282/hearty-italian-meatball-soup/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Hearty Italian Meatball Soup</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups water\n\n\n2 (14 ounce) cans diced tomatoes with onion and garlic, undrained\n\n\n2 (14 ounce) cans beef broth\n\n\n1 teaspoon Italian seasoning\n\n\n1 (16 ounce) package frozen cooked Italian-style meatballs\n\n\n2 cups frozen Italian-blend vegetables\n\n\n1 cup small star-shaped dried pasta\n\n\n¼ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups water\n\n\n2 (14 ounce) cans diced tomatoes with onion and garlic, undrained\n\n\n2 (14 ounce) cans beef broth\n\n\n1 teaspoon Italian seasoning\n\n\n1 (16 ounce) package frozen cooked Italian-style meatballs\n\n\n2 cups frozen Italian-blend vegetables\n\n\n1 cup small star-shaped dried pasta\n\n\n¼ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir water, tomatoes, beef broth, and Italian seasoning together in a large pot; bring to a boil."},{"recipe_directions":"Add meatballs, Italian-blend vegetables, and pasta to the pot; bring to a boil, reduce heat to medium-low, and cook until meatballs are heated through and the pasta is tender, about 10 minutes."},{"recipe_directions":"Ladle soup into bowls and garnish with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"272\nCalories\n\n\n9g \nFat\n\n\n31g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699640390-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zSH8rp1aCJkimlq2EEUA3BpdeQg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4425236-3741bc8a72824bea93d3ef5a3fea1df6.jpg"
@@ -3013,59 +3182,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223044/chef-johns-minestrone-soup/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Chef John's Minestrone Soup</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 25 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n3 ounces chopped pancetta\n\n\n1  onion, diced\n\n\n1 cup diced celery\n\n\n4 cloves garlic, minced\n\n\n4 cups chicken broth\n\n\n2 cups water, plus more as needed\n\n\n1 (28 ounce) can plum tomatoes, crushed fine\n\n\n1 cup cranberry beans, shelled \n\n\n2 cups chopped cabbage, or more to taste\n\n\n1 (15 ounce) can garbanzo beans, drained\n\n\n1 teaspoon red pepper flakes, or to taste\n\n\n1 teaspoon Italian seasoning\n\n\n2 teaspoons salt\n\n\n1 bunch Swiss chard, chopped\n\n\n⅔ cup ditalini pasta\n\n\n  salt and ground black pepper\n\n\n¼ cup extra virgin olive oil, for drizzling\n\n\n¼ cup finely grated Parmigiano-Reggiano cheese\n\n\n¼ cup chopped fresh Italian flat-leaf parsley"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n3 ounces chopped pancetta\n\n\n1  onion, diced\n\n\n1 cup diced celery\n\n\n4 cloves garlic, minced\n\n\n4 cups chicken broth\n\n\n2 cups water, plus more as needed\n\n\n1 (28 ounce) can plum tomatoes, crushed fine\n\n\n1 cup cranberry beans, shelled \n\n\n2 cups chopped cabbage, or more to taste\n\n\n1 (15 ounce) can garbanzo beans, drained\n\n\n1 teaspoon red pepper flakes, or to taste\n\n\n1 teaspoon Italian seasoning\n\n\n2 teaspoons salt\n\n\n1 bunch Swiss chard, chopped\n\n\n⅔ cup ditalini pasta\n\n\n  salt and ground black pepper\n\n\n¼ cup extra virgin olive oil, for drizzling\n\n\n¼ cup finely grated Parmigiano-Reggiano cheese\n\n\n¼ cup chopped fresh Italian flat-leaf parsley'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"I always feel a little apprehensive when I post a recipe like this minestrone soup. It's the type of dish I never make the same way twice, and the fear is that someone will watch and assume that this is my \"official\" version."},{"recipe_directions":"You don't need a recipe for minestrone, just like you don't need a recipe for a great sandwich or an epic salad. To make minestrone soup precisely the same way every time, using a very specific list of ingredients and amounts, is to trample on the soul of this Italian classic."},{"recipe_directions":"Having said all that, what if you happen to make it so incredibly delicious one time that you want to experience the exact same shuddering soupgasm in the future? That seems like a perfectly sound reason for why you should write down the recipe…except cooking food doesn't work that way."},{"recipe_directions":"Your perception of how a recipe tastes involves so many factors above and far beyond the list of ingredients. Remember that time you made that super awesome whatever, and it was so perfect, and then you made it again, exactly the same way, but somehow it just didn't taste as great? This is why."},{"recipe_directions":"So, I hope you give this amazing minestrone recipe a try soon…but only once. Enjoy!"},{"recipe_directions":"For more Chef John, be sure to subscribe to Food Wishes on YouTube! Click the \"Join\" button there to get Chef John's bonus video footage and behind-the-scenes pictures, live chats, and other Food Wishes member exclusives."},{"recipe_directions":"Heat 2 tablespoons olive oil in large stock pot over medium-high heat. Add pancetta; cook and stir until it begins to brown, 2 to 3 minutes. Stir in onions and celery; cook and stir until onions start to turn translucent, about 3 minutes. Stir in minced garlic and cook for another minute."},{"recipe_directions":"Pour chicken broth, water, and plum tomatoes into the pancetta and onion mixture. Bring to a simmer."},{"recipe_directions":"Stir cranberry beans, cabbage, garbanzo beans, red pepper flakes, Italian seasoning, and 2 teaspoons salt into broth mixture. Bring to a simmer and cook until cranberry beans are tender, adding more water as needed if the soup becomes too thick, about 45 minutes."},{"recipe_directions":"Stir in Swiss chard and simmer until softened, about 15 minutes. Season with salt and black pepper to taste."},{"recipe_directions":"Stir in pasta and increase heat to medium-high and simmer until pasta is tender, about 15 minutes. Ladle into bowls and top with extra virgin olive oil, Parmigiano-Reggiano cheese, and Italian parsley."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Minestrone"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"484\nCalories\n\n\n23g \nFat\n\n\n54g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699640403-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/R43nu7ErkKhBUbfATQnbTbKuqew=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1066605-northern-italian-beef-stew-naples34102-1x1-1-a1b41607394b4548b809545e6b61b93d.jpg"
@@ -3079,59 +3244,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229089/northern-italian-beef-stew/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Northern Italian Beef Stew</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 4 hrs 20 mins\n\n\nTotal Time:\n 4 hrs 50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n2 pounds lean top round, trimmed and cut into 1-inch cubes\n\n\n2 large sweet onions, diced\n\n\n2 cups large chunks of celery\n\n\n4 large carrots, peeled and cut into large rounds\n\n\n1 pound crimini mushrooms, sliced\n\n\n2 tablespoons minced garlic\n\n\n2 cups dry red wine\n\n\n4 large tomatoes, chopped\n\n\n1 ½ pounds red potatoes (such as Red Bliss), cut into 1-inch chunks\n\n\n1 tablespoon dried basil\n\n\n1 teaspoon dried thyme\n\n\n1 teaspoon dried marjoram\n\n\n½ teaspoon dried sage\n\n\n1 quart beef stock\n\n\n2 cups tomato sauce"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n2 pounds lean top round, trimmed and cut into 1-inch cubes\n\n\n2 large sweet onions, diced\n\n\n2 cups large chunks of celery\n\n\n4 large carrots, peeled and cut into large rounds\n\n\n1 pound crimini mushrooms, sliced\n\n\n2 tablespoons minced garlic\n\n\n2 cups dry red wine\n\n\n4 large tomatoes, chopped\n\n\n1 ½ pounds red potatoes (such as Red Bliss), cut into 1-inch chunks\n\n\n1 tablespoon dried basil\n\n\n1 teaspoon dried thyme\n\n\n1 teaspoon dried marjoram\n\n\n½ teaspoon dried sage\n\n\n1 quart beef stock\n\n\n2 cups tomato sauce'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat. Cook beef in batches in hot oil until browned completely, about 5 minutes per batch. Remove browned beef cubes to a plate lined with paper towels, keeping skillet over heat and retaining the beef drippings."},{"recipe_directions":"Cook and stir onion, celery, and carrots in the retained beef drippings until just softened, 2 to 3 minutes. Stir mushrooms and garlic into the onion mixture."},{"recipe_directions":"Pour red wine into the pan; bring to a boil while scraping the browned bits of food off the bottom of the pan with a wooden spoon. Continue cooking the mixture until the wine evaporates, 7 to 10 minutes. Stir tomatoes into the mixture."},{"recipe_directions":"Return beef to skillet with potatoes, basil, thyme, marjoram, and sage. Pour beef stock and tomato sauce over the mixture. Bring the liquid to a simmer."},{"recipe_directions":"Reduce heat to low and simmer until the beef is very tender and the sauce is thick, 4 to 6 hours."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"476\nCalories\n\n\n10g \nFat\n\n\n34g \nCarbs\n\n\n50g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699640407-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C6TlrGBMyD40pqzKa0L7g-2z8QE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/560430-roasted-garlic-potato-soup-TTV78-4x3-1-2ae754749822406f9565fbbc53f3429c.jpg"
@@ -3145,59 +3306,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23153/roasted-garlic-potato-soup/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Roasted Garlic Potato Soup</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  potatoes, peeled and cut into 1 inch pieces\n\n\n2 tablespoons olive oil, divided\n\n\n½ teaspoon ground black pepper\n\n\n1  onion, chopped\n\n\n6 cloves garlic, peeled\n\n\n3 cups chicken broth\n\n\n1 cup water\n\n\n1 cup whole milk\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  potatoes, peeled and cut into 1 inch pieces\n\n\n2 tablespoons olive oil, divided\n\n\n½ teaspoon ground black pepper\n\n\n1  onion, chopped\n\n\n6 cloves garlic, peeled\n\n\n3 cups chicken broth\n\n\n1 cup water\n\n\n1 cup whole milk\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Place potatoes in a shallow roasting pan and drizzle with 1 tablespoon olive oil. Sprinkle with pepper; stir to coat. Bake for 25 minutes, or until potatoes are browned. Reserve 1 cup of roasted potatoes."},{"recipe_directions":"In a 3 quart saucepan heat remaining oil; saute onions for 5 minutes. Add potatoes and garlic and stir in broth and water. Bring to a boil, reduce heat and simmer, uncovered, for 20 minutes."},{"recipe_directions":"Spoon half of broth mixture into a blender; blend until nearly smooth. Repeat with remaining mixture; return all to pot. Stir in milk and season with salt to taste. Ladle into bowls and top with reserved roasted potatoes."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"241\nCalories\n\n\n6g \nFat\n\n\n43g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699640411-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3cM0e-y5CkFoFoJ6RjMr2hUu9dI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9278914-efc8d7304e6c4203a6188423dd047d6b.jpg"
@@ -3210,59 +3367,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/78023/bean-soup-with-kale/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Bean Soup with Kale</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 medium yellow onion, chopped\n\n\n8 large garlic cloves, crushed or minced\n\n\n4 cups chopped raw kale\n\n\n4 cups low-fat, low-sodium chicken or vegetable broth, divided\n\n\n2 (15 ounce) cans white beans, such as cannellini or navy, undrained and divided\n\n\n4  plum tomatoes, chopped\n\n\n2 teaspoons dried Italian herb seasoning\n\n\nsalt and pepper to taste\n\n\n1 cup chopped parsley"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 medium yellow onion, chopped\n\n\n8 large garlic cloves, crushed or minced\n\n\n4 cups chopped raw kale\n\n\n4 cups low-fat, low-sodium chicken or vegetable broth, divided\n\n\n2 (15 ounce) cans white beans, such as cannellini or navy, undrained and divided\n\n\n4  plum tomatoes, chopped\n\n\n2 teaspoons dried Italian herb seasoning\n\n\nsalt and pepper to taste\n\n\n1 cup chopped parsley'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large pot over medium-high heat. Cook and stir onion and garlic in hot oil until soft. Add kale; cook and stir until wilted. Add 3 cups broth, 2 cups beans, tomatoes, herb seasoning, salt, and pepper; bring to a boil, then reduce heat and simmer for 5 minutes."},{"recipe_directions":"Mix remaining beans and broth in a blender or food processor until smooth. Stir into soup to thicken, then simmer for 15 minutes. Ladle into bowls; sprinkle with parsley to serve."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"131\nCalories\n\n\n2g \nFat\n\n\n21g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699640418-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Xqf5_OohLTlPgAOGinCP_MnLsKo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(948x0:950x2):format(webp)/6085696-c8f272d08d93433da1c28ea41604d32d.jpg"
@@ -3275,59 +3428,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12918/tuscan-soup/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Tuscan Soup</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 (3.5 ounce) links spicy Italian sausage, casings removed\n\n\n1  onion, chopped\n\n\n6 cups chicken broth\n\n\n3 large potatoes, cubed\n\n\n1 bunch fresh spinach, washed and chopped\n\n\n¼ cup evaporated milk\n\n\nsalt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 (3.5 ounce) links spicy Italian sausage, casings removed\n\n\n1  onion, chopped\n\n\n6 cups chicken broth\n\n\n3 large potatoes, cubed\n\n\n1 bunch fresh spinach, washed and chopped\n\n\n¼ cup evaporated milk\n\n\nsalt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sausage and onion into a large stockpot over medium heat. Break sausage up with a spoon and cook until onion is translucent and sausage is browned and crumbly, 7 to 8 minutes. Drain if desired."},{"recipe_directions":"Add chicken broth and potatoes; bring to a boil. Reduce the heat to medium-low and simmer until potatoes are tender, 10 to 15 minutes. Stir in spinach and cook until wilted, 1 to 2 minutes."},{"recipe_directions":"Remove from the heat and stir in evaporated milk. Taste and season with salt and pepper as needed."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"224\nCalories\n\n\n12g \nFat\n\n\n18g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699640424-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bEcFvOyJyJsC1BN6FtR082dhRUc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/230298-ddmfs-slow-cooker-vegetarian-minestrone-3X4-0067-a31f18c96a0e44879c22b30aed0fde0a.jpg"
@@ -3341,59 +3490,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230298/slow-cooker-vegetarian-minestrone/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Slow Cooker Vegetarian Minestrone</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 6 hrs 30 mins\n\n\nTotal Time:\n 6 hrs 50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups vegetable broth\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n1 (15 ounce) can kidney beans, drained\n\n\n1 large onion, chopped\n\n\n2 large carrots, diced\n\n\n2  ribs celery, diced\n\n\n1 cup green beans\n\n\n1 small zucchini, chopped\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon minced fresh parsley\n\n\n1 ½ teaspoons dried oregano\n\n\n1 teaspoon salt\n\n\n¾ teaspoon dried thyme\n\n\n¼ teaspoon freshly ground black pepper\n\n\n½ cup elbow macaroni\n\n\n4 cups chopped fresh spinach\n\n\n¼ cup finely grated Parmesan cheese, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups vegetable broth\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n1 (15 ounce) can kidney beans, drained\n\n\n1 large onion, chopped\n\n\n2 large carrots, diced\n\n\n2  ribs celery, diced\n\n\n1 cup green beans\n\n\n1 small zucchini, chopped\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon minced fresh parsley\n\n\n1 ½ teaspoons dried oregano\n\n\n1 teaspoon salt\n\n\n¾ teaspoon dried thyme\n\n\n¼ teaspoon freshly ground black pepper\n\n\n½ cup elbow macaroni\n\n\n4 cups chopped fresh spinach\n\n\n¼ cup finely grated Parmesan cheese, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Combine broth, tomatoes, kidney beans, onion, carrots, celery, green beans, zucchini, garlic, parsley, oregano, salt, thyme, and pepper in a 6-quart slow cooker. Cover and cook on Low for 6 to 8 hours."},{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook elbow macaroni in the boiling water, stirring occasionally, until cooked through but firm to the bite, 8 minutes; drain."},{"recipe_directions":"Stir macaroni and spinach into the slow cooker; cover and cook for 15 more minutes."},{"recipe_directions":"Ladle into bowls and sprinkle with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Minestrone"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"138\nCalories\n\n\n2g \nFat\n\n\n25g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699640429-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/t2P6QcK7lREQfUrKBq18O3sFbTQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(749x0:751x2):format(webp)/8768063-jamies-minestrone-Five-Dogs-Ranch-1x1-1-f71f410eed8a40bfa5fc1eaefc75d97a.jpg"
@@ -3407,59 +3552,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13333/jamies-minestrone/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Jamie's Minestrone Soup</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n3 cloves garlic, chopped\n\n\n2  onions, chopped\n\n\n2 cups chopped celery\n\n\n5  carrots, sliced\n\n\n4 cups tomato sauce\n\n\n2 cups chicken broth\n\n\n2 cups water\n\n\n½ cup red wine (Optional)\n\n\n3  zucchinis, quartered and sliced\n\n\n2 cups baby spinach, rinsed\n\n\n1 (15 ounce) can green beans\n\n\n1 cup canned kidney beans, drained\n\n\n2 tablespoons chopped fresh basil\n\n\n1 tablespoon chopped fresh oregano\n\n\n  salt and pepper to taste\n\n\n½ cup seashell pasta\n\n\n2 tablespoons grated Parmesan cheese for topping\n\n\n1 tablespoon olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n3 cloves garlic, chopped\n\n\n2  onions, chopped\n\n\n2 cups chopped celery\n\n\n5  carrots, sliced\n\n\n4 cups tomato sauce\n\n\n2 cups chicken broth\n\n\n2 cups water\n\n\n½ cup red wine (Optional)\n\n\n3  zucchinis, quartered and sliced\n\n\n2 cups baby spinach, rinsed\n\n\n1 (15 ounce) can green beans\n\n\n1 cup canned kidney beans, drained\n\n\n2 tablespoons chopped fresh basil\n\n\n1 tablespoon chopped fresh oregano\n\n\n  salt and pepper to taste\n\n\n½ cup seashell pasta\n\n\n2 tablespoons grated Parmesan cheese for topping\n\n\n1 tablespoon olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large stockpot over medium-low heat. Sauté garlic in hot oil until fragrant, 2 to 3 minutes. Add onion; cook and stir until translucent, 4 to 5 minutes. Add celery and carrots; sauté for 1 to 2 minutes."},{"recipe_directions":"Pour in tomato sauce, broth, and water; bring to a boil, stirring frequently. Add red wine; reduce heat to low. Stir in zucchinis, spinach, green beans, kidney beans, basil, oregano, salt, and pepper. Simmer until soup is heated through, 30 to 40 minutes."},{"recipe_directions":"Meanwhile, fill a medium saucepan with water and bring to a boil. Cook seashell pasta in boiling water, stirring occasionally, until tender yet firm to the bite, 7 to 8 minutes. Drain and set aside."},{"recipe_directions":"Place 2 tablespoons cooked pasta into individual serving bowls. Ladle soup over pasta and sprinkle with Parmesan cheese. Spray with olive oil to serve."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Minestrone"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"200\nCalories\n\n\n9g \nFat\n\n\n28g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699640433-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1xWs2qJZ97Wwkg3off-NKFMS4pE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1105025-7114f920dc0a4a57936a71e6c46ccbfb.jpg"
@@ -3472,59 +3613,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236599/chef-johns-italian-sausage-chili/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Chef John's Italian Sausage Chili</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 ¼ pounds hot Italian sausage, casings removed\n\n\n1 ¼ pounds mild Italian sausage, casings removed\n\n\n1  onion, chopped\n\n\n  salt to taste\n\n\n2 tablespoons ancho chile powder\n\n\n1 teaspoon paprika\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon chipotle chile powder\n\n\n½ teaspoon dried oregano\n\n\n2 ½ cups water, or as needed\n\n\n1 cup tomato puree\n\n\n2 (15 ounce) cans cannellini beans, drained and rinsed\n\n\n1  red bell pepper, diced\n\n\n1  green bell pepper, diced"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 ¼ pounds hot Italian sausage, casings removed\n\n\n1 ¼ pounds mild Italian sausage, casings removed\n\n\n1  onion, chopped\n\n\n  salt to taste\n\n\n2 tablespoons ancho chile powder\n\n\n1 teaspoon paprika\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon chipotle chile powder\n\n\n½ teaspoon dried oregano\n\n\n2 ½ cups water, or as needed\n\n\n1 cup tomato puree\n\n\n2 (15 ounce) cans cannellini beans, drained and rinsed\n\n\n1  red bell pepper, diced\n\n\n1  green bell pepper, diced'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large pot over medium-high heat. Cook and stir hot and mild Italian sausage, onion, and a pinch of salt in hot oil until sausage is browned and crumbly, and most of the liquid is evaporated, about 10 minutes."},{"recipe_directions":"Stir in ancho chile powder, paprika, cumin, black pepper, chipotle chile powder, and oregano; sauté until fragrant, about 2 minutes."},{"recipe_directions":"Pour in water and tomato purée; bring to a simmer. Reduce heat to medium-low and cook at a steady simmer until sausage is tender, about 45 minutes. Add more water as needed and skim any fat that floats to the top."},{"recipe_directions":"Stir in beans and bell peppers. Simmer until vegetables are tender, about 30 minutes. Season with salt."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Chili Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"599\nCalories\n\n\n38g \nFat\n\n\n31g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699640437-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kkfKxkUYjRDYC15tjYe-aWeechs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(546x603:548x605):format(webp)/3406306-stracciatella-soup-Chef-John-1x1-1-c08995031c664272bc2559eb9125e2bd.jpg"
@@ -3538,59 +3675,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246528/stracciatella-soup/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Stracciatella Soup</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups chicken broth\n\n\n  salt and freshly ground black pepper to taste\n\n\n3  large eggs\n\n\n½ ounce grated Parmigiano-Reggiano cheese \n\n\n½ ounce grated pecorino Romano cheese\n\n\n2 tablespoons chopped fresh parsley\n\n\n2 tablespoons semolina flour\n\n\n1 pinch cayenne pepper\n\n\n1 pinch freshly grated nutmeg\n\n\n1 tablespoon olive oil\n\n\n1 pinch red pepper flakes"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups chicken broth\n\n\n  salt and freshly ground black pepper to taste\n\n\n3  large eggs\n\n\n½ ounce grated Parmigiano-Reggiano cheese \n\n\n½ ounce grated pecorino Romano cheese\n\n\n2 tablespoons chopped fresh parsley\n\n\n2 tablespoons semolina flour\n\n\n1 pinch cayenne pepper\n\n\n1 pinch freshly grated nutmeg\n\n\n1 tablespoon olive oil\n\n\n1 pinch red pepper flakes'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring broth to a simmer in a pot over high heat. Taste broth and adjust salt and pepper as needed."},{"recipe_directions":"Whisk eggs, grated Parmigiano Reggiano and Pecorino Romano cheeses, parsley, semolina flour, salt, pepper, cayenne, and nutmeg together in a bowl until well blended."},{"recipe_directions":"While stirring the simmering broth, slowly pour egg mixture into the broth. Bring mixture back up to a simmer. The liquid will be slightly cloudy initially and clear as broth heats."},{"recipe_directions":"Serve in bowls; garnish with a drizzle of olive oil and a pinch of red pepper flakes."},{"recipe_directions":"Makes 2 large or 4 appetizer-sized portions."},{"recipe_directions":"A nice, rich homemade chicken broth is best for this recipe. But if there's none available, use good quality prepared broth."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Chicken Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"313\nCalories\n\n\n20g \nFat\n\n\n13g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699640441-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/o8OPheZlD0KFPCms_BpE2XQ61KQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8248518-slow-cooker-zuppa-toscana-Frances-4x3-1-87088c3b4eb34e8ea9b0d71e041a42e8.jpg"
@@ -3604,59 +3737,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261337/slow-cooker-zuppa-toscana/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Slow Cooker Zuppa Toscana</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 3 hrs 40 mins\n\n\nTotal Time:\n 4 hrs\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound bulk pork sausage\n\n\n1 large yellow onion, chopped\n\n\n2 tablespoons minced garlic\n\n\n4 large russet potatoes, chopped\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 pinch red pepper flakes\n\n\n1 (32 ounce) container chicken broth\n\n\n2 cups water, or as needed\n\n\n1 cup heavy whipping cream\n\n\n1 bunch kale, stems removed and discarded, leaves torn into bite-size pieces\n\n\n¼ cup shredded Parmesan cheese (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound bulk pork sausage\n\n\n1 large yellow onion, chopped\n\n\n2 tablespoons minced garlic\n\n\n4 large russet potatoes, chopped\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 pinch red pepper flakes\n\n\n1 (32 ounce) container chicken broth\n\n\n2 cups water, or as needed\n\n\n1 cup heavy whipping cream\n\n\n1 bunch kale, stems removed and discarded, leaves torn into bite-size pieces\n\n\n¼ cup shredded Parmesan cheese (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Cook and stir sausage in the hot skillet until browned and crumbly, 5 to 7 minutes. Add onion and garlic; sauté until onion is tender and translucent, 3 to 5 minutes. Drain and discard grease."},{"recipe_directions":"Place potatoes in a slow cooker; add cooked sausage and onion mixture. Season with salt, black pepper, and red pepper flakes. Pour in chicken broth and up to 2 cups water to completely cover potatoes. Stir soup gently and cover."},{"recipe_directions":"Cook on Low for 5 to 6 hours or High for 3 to 4 hours."},{"recipe_directions":"Pour in heavy cream and stir in kale to combine. Cover and cook on High until flavors are incorporated, about 30 minutes more. Garnish with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Potato Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"447\nCalories\n\n\n25g \nFat\n\n\n42g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699640444-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F4y1r2JwQ9-n-4-3-7ZAvOBj-0o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6285692-2000-b479479c45264abca7d46e3aee971868.jpg"
@@ -3670,59 +3799,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12942/italian-sausage-soup/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Italian Sausage Soup</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound Italian sausage\n\n\n1 clove garlic, minced\n\n\n2 (14 ounce) cans beef broth\n\n\n1 (14.5 ounce) can Italian-style stewed tomatoes\n\n\n1 cup sliced carrots\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 (14.5 ounce) can great Northern beans, undrained\n\n\n2 small zucchini, cubed\n\n\n2 cups spinach - packed, rinsed and torn"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound Italian sausage\n\n\n1 clove garlic, minced\n\n\n2 (14 ounce) cans beef broth\n\n\n1 (14.5 ounce) can Italian-style stewed tomatoes\n\n\n1 cup sliced carrots\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 (14.5 ounce) can great Northern beans, undrained\n\n\n2 small zucchini, cubed\n\n\n2 cups spinach - packed, rinsed and torn'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a stockpot or Dutch oven over medium-high heat. Add sausage and garlic; cook and stir until browned, 5 to 7 minutes. Stir in broth, tomatoes, and carrots; season with salt and pepper. Reduce heat to medium-low, cover, and simmer 15 minutes."},{"recipe_directions":"Stir in beans with liquid and zucchini; cover and simmer another 15 minutes, or until zucchini is tender."},{"recipe_directions":"Remove soup from heat and add spinach; replace the lid and allow spinach to wilt. Stir until warmed through."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Pork Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"385\nCalories\n\n\n24g \nFat\n\n\n23g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699640447-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5Wy1EFfp0aQs3KojLX1lbrKcEUE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(449x0:451x2):format(webp)/4064575-pasta-fazool-pasta-e-fagioli-Chef-John-1x1-1-3b09444d9d99494181825cda657f3d0f.jpg"
@@ -3736,59 +3861,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255823/pasta-fazool-pasta-e-fagioli/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Pasta Fazool (Pasta e Fagioli)</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n12 ounces sweet bulk Italian sausage\n\n\n1 stalk celery, diced\n\n\n½  yellow onion, chopped\n\n\n¾ cup dry elbow macaroni\n\n\n¼ cup tomato paste\n\n\n3 cups chicken broth, or more as needed, divided\n\n\n¼ teaspoon crushed red pepper flakes, or to taste\n\n\n¼ teaspoon dried oregano\n\n\n  Salt and freshly ground black pepper to taste\n\n\n3 cups chopped Swiss chard\n\n\n1 (15 ounce) can cannellini (white kidney) beans, drained\n\n\n¼ cup grated Parmigiano-Reggiano cheese, plus additional for serving, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n12 ounces sweet bulk Italian sausage\n\n\n1 stalk celery, diced\n\n\n½  yellow onion, chopped\n\n\n¾ cup dry elbow macaroni\n\n\n¼ cup tomato paste\n\n\n3 cups chicken broth, or more as needed, divided\n\n\n¼ teaspoon crushed red pepper flakes, or to taste\n\n\n¼ teaspoon dried oregano\n\n\n  Salt and freshly ground black pepper to taste\n\n\n3 cups chopped Swiss chard\n\n\n1 (15 ounce) can cannellini (white kidney) beans, drained\n\n\n¼ cup grated Parmigiano-Reggiano cheese, plus additional for serving, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a skillet over medium-high heat. Cook and stir sausage in the hot skillet until browned and crumbly, about 5 minutes. Reduce heat to medium. Add diced celery and chopped onion. Cook until onions are translucent, 4 to 5 minutes. Add dry pasta; cook and stir for 2 minutes."},{"recipe_directions":"Stir in tomato paste until evenly distributed, 2 to 3 minutes. Pour in 3 cups broth; increase heat to high and bring to a boil. Stir in red pepper flakes, oregano, salt, and pepper. Reduce heat to medium and let simmer, stirring often, for about 5 minutes. Add more broth if needed."},{"recipe_directions":"Place chopped chard in a bowl. Cover with cold water and rinse leaves; any grit will fall to the bottom of the bowl. Transfer chard to a colander to drain briefly; add to soup. Cook and stir until leaves wilt, 2 to 3 minutes."},{"recipe_directions":"Stir in white beans; continue cooking and stirring until pasta is tender, 4 to 5 minutes. Remove from heat and stir in grated cheese. Serve topped with additional grated cheese."},{"recipe_directions":"This recipe makes enough for 2 large portions or 4 small ones."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"888\nCalories\n\n\n44g \nFat\n\n\n77g \nCarbs\n\n\n44g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699640452-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0mQYN169Y-3YF0a2RVUMI4DA8qI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/231287sausage-potato-and-kale-soupMyHotSouthernMess4x3-46e0b210e8214f4287b09204d422cdd5.jpg"
@@ -3802,59 +3923,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231287/sausage-potato-and-kale-soup/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Sausage, Potato and Kale Soup</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound bulk Italian sausage\n\n\n4 cups half-and-half\n\n\n3 cups cubed potatoes\n\n\n2 cups low-sodium chicken broth\n\n\n2 cups whole milk\n\n\n1 medium onion, chopped\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon red pepper flakes, or more to taste\n\n\n½ teaspoon ground black pepper\n\n\n2 cups kale, torn into bite-sized pieces"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound bulk Italian sausage\n\n\n4 cups half-and-half\n\n\n3 cups cubed potatoes\n\n\n2 cups low-sodium chicken broth\n\n\n2 cups whole milk\n\n\n1 medium onion, chopped\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon red pepper flakes, or more to taste\n\n\n½ teaspoon ground black pepper\n\n\n2 cups kale, torn into bite-sized pieces'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large soup pot over medium-high heat. Crumble sausage into the pot; cook and stir until browned, about 10 minutes. Drain and discard grease."},{"recipe_directions":"Stir half-and-half, potatoes, chicken broth, milk, onion, oregano, and pepper flakes into sausage, and bring to a boil. Reduce heat to low and simmer until potatoes are tender, about 30 minutes."},{"recipe_directions":"Season with black pepper. Stir in kale; simmer until kale is tender, 10 to 15 more minutes."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Cream Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"266\nCalories\n\n\n18g \nFat\n\n\n16g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699640457-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tTT6x0enA5OJS_OJyt5D-NcqEgE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/13024-ItalianWeddingSoup-1-mfs-1X1-1030-e5151c01fa0543d6bdb736ad01071828.jpg"
@@ -3868,59 +3985,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13024/italian-wedding-soup-i/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Italian Wedding Soup</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound extra-lean ground beef\n\n\n1 large egg, lightly beaten\n\n\n2 tablespoons dry bread crumbs\n\n\n1 tablespoon grated Parmesan cheese\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon onion powder\n\n\n5 ¾ cups chicken broth\n\n\n2 cups thinly sliced escarole\n\n\n1 cup uncooked orzo pasta\n\n\n⅓ cup finely chopped carrot"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound extra-lean ground beef\n\n\n1 large egg, lightly beaten\n\n\n2 tablespoons dry bread crumbs\n\n\n1 tablespoon grated Parmesan cheese\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon onion powder\n\n\n5 ¾ cups chicken broth\n\n\n2 cups thinly sliced escarole\n\n\n1 cup uncooked orzo pasta\n\n\n⅓ cup finely chopped carrot'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Warm up with a hearty bowl of Italian wedding soup. This top-rated soup recipe is the perfect bowl of comfort that everyone will love. Want to know the best part? This Italian wedding soup only requires a few ingredients and comes together in less than an hour."},{"recipe_directions":"Italian wedding soup is a hearty Italian soup consisting of noodles, vegetables, meatballs, and broth. It was originally a \"peasant dish,\" meaning it's made from inexpensive ingredients that anyone could find."},{"recipe_directions":"Even though it's called \"wedding soup,\" this soup has nothing to do with weddings. The name comes from the Italian phrase \"minestra maritata,\" which actually means married soup. But it's not the marriage we think of — it's actually referring to the marriage of the ingredients and the flavor it produces."},{"recipe_directions":"Most Italian wedding soups contain these ingredients:"},{"recipe_directions":"This particular recipe calls for orzo pasta, which is what we like to use. But you can really use any small pasta you have on hand, like ditalini or acini de pepe."},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here's what you can expect when making this Italian wedding soup:"},{"recipe_directions":"Italian wedding soup really does have it all, so don't feel pressured to serve it with anything! However, we like serving this soup with a warm dinner roll."},{"recipe_directions":"Store completely cooled Italian wedding soup in an airtight container in the fridge for up to four days. You may need to add more broth or water when you're ready to reheat the soup, as the pasta tends to soak it up. Reheat on the stove or in the microwave until warmed through."},{"recipe_directions":"Italian wedding soup freezes well. Ladle the completely cooled soup into individually portioned zip-top freezer bags. Freeze flat for up to three months. Thaw in the fridge overnight and reheat on the stove until warmed through."},{"recipe_directions":"\"I love this soup. The only changes I made was to use mild Italian sausage for the meatballs, which I made in advance, and I used baby spinach leaves instead of escarole,\" says slowcooker. \"I added the spinach during the last minute of cooking. This is a great weeknight soup.\""},{"recipe_directions":"\"I made this for the first time on Easter. My husband and I had had it before but my guests were delighted. It was better than any I had tasted. It has become a family favorite, and I like that it is so simple to make,\" raves one Allrecipes community member."},{"recipe_directions":"\"This soup is the best! I added chopped celery and used less pasta to make it more soupy!! Or if I have leftover chicken, I add that also. My whole family loves this, especially in the winter months,\" according to one Allrecipes community member."},{"recipe_directions":"Editorial contributions by Bailey Fink"},{"recipe_directions":"Combine ground beef, egg, bread crumbs, Parmesan cheese, basil, and onion powder in a bowl."},{"recipe_directions":"Shape beef mixture into 3/4-inch balls and place on a parchment-lined tray."},{"recipe_directions":"Heat broth in a large pot over medium-high heat until boiling. Stir in escarole, orzo, carrot, and meatballs and return to boil. Reduce heat to medium and cook at slow boil, stirring frequently to prevent sticking, until pasta is tender yet firm to the bite, about 10 minutes."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"416\nCalories\n\n\n14g \nFat\n\n\n43g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699640461-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HlBK5JisV8xK6s7gJSpe0ye0Tew=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/12816-cioppino-DDMFS-4x3-39531ec5acc749b9a797de26fa0047d5.jpg"
@@ -3934,59 +4047,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12816/cioppino/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Cioppino</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n13"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup butter\n\n\n2  onions, chopped\n\n\n1 bunch fresh parsley, chopped\n\n\n2 cloves garlic, minced\n\n\n2 (14.5 ounce) cans stewed tomatoes\n\n\n2 (14.5 ounce) cans chicken broth\n\n\n1 ½ cups white wine\n\n\n1 cup water\n\n\n2  bay leaves\n\n\n1 tablespoon dried basil\n\n\n½ teaspoon dried thyme\n\n\n½ teaspoon dried oregano\n\n\n1 ½ pounds cod fillets, cubed\n\n\n1 ½ pounds large shrimp - peeled and deveined\n\n\n1 ½ pounds bay scallops\n\n\n18 small clams\n\n\n18  mussels, cleaned and debearded\n\n\n1 ½ cups crabmeat"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup butter\n\n\n2  onions, chopped\n\n\n1 bunch fresh parsley, chopped\n\n\n2 cloves garlic, minced\n\n\n2 (14.5 ounce) cans stewed tomatoes\n\n\n2 (14.5 ounce) cans chicken broth\n\n\n1 ½ cups white wine\n\n\n1 cup water\n\n\n2  bay leaves\n\n\n1 tablespoon dried basil\n\n\n½ teaspoon dried thyme\n\n\n½ teaspoon dried oregano\n\n\n1 ½ pounds cod fillets, cubed\n\n\n1 ½ pounds large shrimp - peeled and deveined\n\n\n1 ½ pounds bay scallops\n\n\n18 small clams\n\n\n18  mussels, cleaned and debearded\n\n\n1 ½ cups crabmeat'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a large stockpot over medium-low heat. Add onions, parsley, and garlic. Cook and stir until onions are softened, 3 to 4 minutes."},{"recipe_directions":"Add tomatoes to the pot (break them into chunks as you add them). Stir in chicken broth, wine, water, bay leaves, basil, thyme, and oregano. Cover and simmer for 30 minutes."},{"recipe_directions":"Stir in cod, shrimp, scallops, clams, mussels, and crabmeat. Bring to boil; lower heat, cover, and simmer until clams open up, 5 to 7 minutes. Ladle soup into bowls and serve."},{"recipe_directions":"Enjoy!"},{"recipe_directions":"Please note the differences in ingredient amounts when using the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"318\nCalories\n\n\n13g \nFat\n\n\n9g \nCarbs\n\n\n35g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699640465-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZdIDb9W_I5tXl6HJzgAL1kAvd6A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(520x0:522x2):format(webp)/Instant-Pot-Tuscan-White-Bean-Sausage-Soup-1x1-1-d850076968ca4ad4b87e753da4ffd4f7.jpg"
@@ -3998,59 +4107,55 @@
 Instant Pot Tuscan Bean and Sausage Soup</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8471751/instant-pot-tuscan-bean-and-sausage-soup/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Instant Pot Tuscan Bean and Sausage Soup</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nStand Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n½ pound Italian-style chicken sausage, casings removed\n\n\n1 ½ cups diced onion\n\n\n2 cloves garlic, minced\n\n\n1 (15 ounce) can white kidney beans (cannellini), rinsed and drained\n\n\n1 teaspoon Italian seasoning\n\n\n1 (32 ounce) carton Swanson® Chicken Broth (4 cups)\n\n\n3 cups finely chopped kale leaves\n\n\n2 tablespoons grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n½ pound Italian-style chicken sausage, casings removed\n\n\n1 ½ cups diced onion\n\n\n2 cloves garlic, minced\n\n\n1 (15 ounce) can white kidney beans (cannellini), rinsed and drained\n\n\n1 teaspoon Italian seasoning\n\n\n1 (32 ounce) carton Swanson® Chicken Broth (4 cups)\n\n\n3 cups finely chopped kale leaves\n\n\n2 tablespoons grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"On a 6-quart Instant Pot, select the Saute setting. Heat the oil. Add the sausage and cook for 10 minutes or until well browned, stirring often to separate meat. Press Cancel."},{"recipe_directions":"Add the onion, garlic, beans, Italian seasoning, and Swanson Chicken Broth. Lock the lid and close the pressure release valve. Pressure cook on High pressure, setting the timer to 3 minutes (timer will begin counting down once pressure is reached- it takes about 10 minutes)."},{"recipe_directions":"When done, press Cancel and use the quick-release method to release the pressure."},{"recipe_directions":"Stir in the kale and let stand for 5 minutes. Season to taste and sprinkle with the cheese."},{"recipe_directions":"Trim kale leaves from stems before finely chopping."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"128\nCalories\n\n\n8g \nFat\n\n\n7g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699640468-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1790/world-cuisine/european/italian/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2AGSMK16xA_nCiFabkF705NA3Zw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/Super-Delicious-Zuppa-Toscana-e0ecd2a124674b84b63570320d20ca9b.jpeg"
@@ -4064,42 +4169,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/143069/super-delicious-zuppa-toscana/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Super-Delicious Zuppa Toscana</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound bulk mild Italian sausage\n\n\n1 ¼ teaspoons crushed red pepper flakes\n\n\n4 slices bacon, cut into 1/2 inch pieces\n\n\n1 large onion, diced\n\n\n1 tablespoon minced garlic\n\n\n5 (13.75 ounce) cans chicken broth\n\n\n6 medium potatoes, thinly sliced \n\n\n1 cup heavy cream\n\n\n¼ bunch fresh spinach, tough stems removed"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound bulk mild Italian sausage\n\n\n1 ¼ teaspoons crushed red pepper flakes\n\n\n4 slices bacon, cut into 1/2 inch pieces\n\n\n1 large onion, diced\n\n\n1 tablespoon minced garlic\n\n\n5 (13.75 ounce) cans chicken broth\n\n\n6 medium potatoes, thinly sliced \n\n\n1 cup heavy cream\n\n\n¼ bunch fresh spinach, tough stems removed'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This zuppa toscana recipe is hearty, flavorful, and delicious — not to mention identical to a  popular menu item at a certain chain restaurant!"},{"recipe_directions":"These are the ingredients you’ll need to make this hearty zuppa toscana recipe:"},{"recipe_directions":"You’ll find the full, step-by-step recipe below — but here’s a brief overview of what you can expect when you make homemade zuppa toscana:"},{"recipe_directions":"Pair this zuppa toscana with a crusty bread, such as our top-rated French Bread. For a complete dinner, explore our collections of Italian Appetizers and Italian Side Dishes. Here are a few of the recipes you’ll find:"},{"recipe_directions":"Store your leftover (cooled) zuppa toscana soup in a shallow, airtight container in the fridge for up to three days. Reheat thoroughly in the microwave or on the stove."},{"recipe_directions":"Yes, you can freeze zuppa toscana soup for up to three months. Thaw in the refrigerator overnight, then reheat gently (but thoroughly) on the stove."},{"recipe_directions":"“Made this tonight,” says Lisa Dilorenzo. “Was excellent. Will add to rotation during cold months. I did use hot Italian sausage and added Romano to the broth at the end for extra flavor.”"},{"recipe_directions":"“The trick here is to refrigerate after cooking and eat it the day after,” according to Rev. “The flavor was even better and more savory the second day.”"},{"recipe_directions":"“I have made this recipe for years now just as written,” says danielle. “Amazing!! Just recently I have substituted a head of cauliflower and one package of mushrooms for the potatoes. It is just as good!!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Cook Italian sausage and red pepper flakes in a Dutch oven over medium-high heat until crumbly, browned, and no longer pink, 10 to 15 minutes. Drain and set aside."},{"recipe_directions":"Cook bacon in the same Dutch oven over medium heat until crisp, about 10 minutes. Drain, leaving a few tablespoons of drippings with the bacon in the bottom of the Dutch oven. Stir in onions and garlic; cook until onions are soft and translucent, about 5 minutes."},{"recipe_directions":"Stir in chicken broth and bring to a boil over high heat. Add potatoes and simmer until fork tender, about 20 minutes. Reduce heat to medium; stir in cream, cooked sausage, and spinach. Cook and stir until spinach has wilted and sausage is warmed through; serve."},{"recipe_directions":"Please note the differences in serving size and the substitution of lacinato kale for spinach when using the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"},{"recipe_tags":"Soups and Stews"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"554\nCalories\n\n\n33g \nFat\n\n\n46g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>